--- a/DOC/基本設計/基本設計_emsm_ 雇用保険率リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_ 雇用保険率リスト.xlsx
@@ -10,11 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169EDFD9-68B2-4CAA-9890-FB4B98E6FF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="3"/>
+    <workbookView xWindow="195" yWindow="840" windowWidth="26805" windowHeight="14535" tabRatio="833" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="9" r:id="rId1"/>
     <sheet name="履歴一覧" sheetId="8" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="14" r:id="rId11"/>
     <sheet name="画面レイアウト" sheetId="10" r:id="rId3"/>
     <sheet name="処理概要" sheetId="11" r:id="rId4"/>
     <sheet name="入出力項目定義書" sheetId="12" r:id="rId5"/>
@@ -763,12 +764,27 @@
   <si>
     <t>－</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 1)検索ボダンを押すと検索する</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2)更新ボタン押すと更新画面へ遷移</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)新規ボダン</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3)新規ボダン押すと新規画面へ遷移</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,6 +1254,33 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <u val="single"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1277,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="232">
+  <borders count="234">
     <border>
       <left/>
       <right/>
@@ -3413,13 +3456,24 @@
       <top style="none"/>
       <bottom style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <right style="thin"/>
+      <top style="double"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="793">
+  <cellXfs count="853">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6048,6 +6102,186 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="70" applyFont="1" fillId="0" applyFill="1" borderId="219" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment vertical="center"/>
       <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="0" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="76" applyFont="1" fillId="3" applyFill="1" borderId="232" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="17" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment shrinkToFit="1" vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="16" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="12" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="14" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="107" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="233" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6080,7 +6314,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6486525" cy="1514475"/>
+    <xdr:ext cx="5514975" cy="1295400"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name=""/>
@@ -6098,7 +6332,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="76200" y="1114425"/>
-          <a:ext cx="6486525" cy="1514475"/>
+          <a:ext cx="5514975" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6107,6 +6341,455 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="1219200"/>
+          <a:ext cx="1514475" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>凡例：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　　：画面遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="1533525"/>
+          <a:ext cx="457200" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1933575"/>
+          <a:ext cx="495300" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="3048000"/>
+          <a:ext cx="1162050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="3048000"/>
+          <a:ext cx="1171575" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メニュー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="3209925"/>
+          <a:ext cx="1676400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2695575"/>
+          <a:ext cx="1162050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>雇用保険率テーブルボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7373,7 +8056,7 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="AA25" sqref="AA25:AA26" activeCellId="0"/>
+      <selection activeCell="AN21" sqref="AN21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13385,8 +14068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F81D7B7-FE65-404E-8F94-1E0DE511BF03}">
   <dimension ref="A1:BM33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110" tabSelected="1">
-      <selection activeCell="BU23" sqref="BU23" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
+      <selection activeCell="K21" sqref="K21" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14732,7 +15415,7 @@
       <c r="A13" s="691"/>
       <c r="B13" s="519"/>
       <c r="C13" s="504" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="D13" s="505"/>
       <c r="E13" s="505"/>
@@ -14800,12 +15483,10 @@
       <c r="A14" s="691"/>
       <c r="B14" s="519"/>
       <c r="C14" s="593" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="D14" s="505"/>
-      <c r="E14" s="594" t="s">
-        <v>224</v>
-      </c>
+      <c r="E14" s="505"/>
       <c r="F14" s="505"/>
       <c r="G14" s="505"/>
       <c r="H14" s="505"/>
@@ -14866,138 +15547,138 @@
       <c r="BK14" s="506"/>
       <c r="BL14" s="653"/>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A15" s="691"/>
-      <c r="B15" s="519"/>
-      <c r="C15" s="593" t="s">
-        <v>227</v>
+      <c r="B15" s="399"/>
+      <c r="C15" s="511" t="s">
+        <v>233</v>
       </c>
-      <c r="D15" s="505"/>
-      <c r="E15" s="505"/>
-      <c r="F15" s="505"/>
-      <c r="G15" s="505"/>
-      <c r="H15" s="505"/>
-      <c r="I15" s="505"/>
-      <c r="J15" s="505"/>
-      <c r="K15" s="505"/>
-      <c r="L15" s="505"/>
-      <c r="M15" s="505"/>
-      <c r="N15" s="505"/>
-      <c r="O15" s="505"/>
-      <c r="P15" s="505"/>
-      <c r="Q15" s="505"/>
-      <c r="R15" s="505"/>
-      <c r="S15" s="505"/>
-      <c r="T15" s="505"/>
-      <c r="U15" s="505"/>
-      <c r="V15" s="505"/>
-      <c r="W15" s="505"/>
-      <c r="X15" s="505"/>
-      <c r="Y15" s="505"/>
-      <c r="Z15" s="505"/>
-      <c r="AA15" s="505"/>
-      <c r="AB15" s="505"/>
-      <c r="AC15" s="505"/>
-      <c r="AD15" s="505"/>
-      <c r="AE15" s="505"/>
-      <c r="AF15" s="505"/>
-      <c r="AG15" s="505"/>
-      <c r="AH15" s="505"/>
-      <c r="AI15" s="505"/>
-      <c r="AJ15" s="505"/>
-      <c r="AK15" s="505"/>
-      <c r="AL15" s="505"/>
-      <c r="AM15" s="505"/>
-      <c r="AN15" s="505"/>
-      <c r="AO15" s="505"/>
-      <c r="AP15" s="505"/>
-      <c r="AQ15" s="505"/>
-      <c r="AR15" s="505"/>
-      <c r="AS15" s="505"/>
-      <c r="AT15" s="505"/>
-      <c r="AU15" s="505"/>
-      <c r="AV15" s="505"/>
-      <c r="AW15" s="505"/>
-      <c r="AX15" s="505"/>
-      <c r="AY15" s="505"/>
-      <c r="AZ15" s="505"/>
-      <c r="BA15" s="505"/>
-      <c r="BB15" s="505"/>
-      <c r="BC15" s="505"/>
-      <c r="BD15" s="505"/>
-      <c r="BE15" s="505"/>
-      <c r="BF15" s="505"/>
-      <c r="BG15" s="505"/>
-      <c r="BH15" s="505"/>
-      <c r="BI15" s="505"/>
-      <c r="BJ15" s="505"/>
-      <c r="BK15" s="506"/>
+      <c r="D15" s="507"/>
+      <c r="E15" s="507"/>
+      <c r="F15" s="507"/>
+      <c r="G15" s="507"/>
+      <c r="H15" s="507"/>
+      <c r="I15" s="507"/>
+      <c r="J15" s="507"/>
+      <c r="K15" s="507"/>
+      <c r="L15" s="507"/>
+      <c r="M15" s="507"/>
+      <c r="N15" s="507"/>
+      <c r="O15" s="507"/>
+      <c r="P15" s="507"/>
+      <c r="Q15" s="507"/>
+      <c r="R15" s="507"/>
+      <c r="S15" s="507"/>
+      <c r="T15" s="507"/>
+      <c r="U15" s="507"/>
+      <c r="V15" s="507"/>
+      <c r="W15" s="507"/>
+      <c r="X15" s="507"/>
+      <c r="Y15" s="507"/>
+      <c r="Z15" s="507"/>
+      <c r="AA15" s="507"/>
+      <c r="AB15" s="507"/>
+      <c r="AC15" s="507"/>
+      <c r="AD15" s="507"/>
+      <c r="AE15" s="507"/>
+      <c r="AF15" s="507"/>
+      <c r="AG15" s="507"/>
+      <c r="AH15" s="507"/>
+      <c r="AI15" s="507"/>
+      <c r="AJ15" s="507"/>
+      <c r="AK15" s="507"/>
+      <c r="AL15" s="507"/>
+      <c r="AM15" s="507"/>
+      <c r="AN15" s="507"/>
+      <c r="AO15" s="507"/>
+      <c r="AP15" s="507"/>
+      <c r="AQ15" s="507"/>
+      <c r="AR15" s="507"/>
+      <c r="AS15" s="507"/>
+      <c r="AT15" s="507"/>
+      <c r="AU15" s="507"/>
+      <c r="AV15" s="507"/>
+      <c r="AW15" s="507"/>
+      <c r="AX15" s="507"/>
+      <c r="AY15" s="507"/>
+      <c r="AZ15" s="507"/>
+      <c r="BA15" s="507"/>
+      <c r="BB15" s="507"/>
+      <c r="BC15" s="507"/>
+      <c r="BD15" s="507"/>
+      <c r="BE15" s="507"/>
+      <c r="BF15" s="507"/>
+      <c r="BG15" s="507"/>
+      <c r="BH15" s="507"/>
+      <c r="BI15" s="507"/>
+      <c r="BJ15" s="507"/>
+      <c r="BK15" s="512"/>
       <c r="BL15" s="653"/>
     </row>
     <row r="16" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A16" s="691"/>
       <c r="B16" s="399"/>
-      <c r="C16" s="511"/>
-      <c r="D16" s="507"/>
-      <c r="E16" s="507"/>
-      <c r="F16" s="507"/>
-      <c r="G16" s="507"/>
-      <c r="H16" s="507"/>
-      <c r="I16" s="507"/>
-      <c r="J16" s="507"/>
-      <c r="K16" s="507"/>
-      <c r="L16" s="507"/>
-      <c r="M16" s="507"/>
-      <c r="N16" s="507"/>
-      <c r="O16" s="507"/>
-      <c r="P16" s="507"/>
-      <c r="Q16" s="507"/>
-      <c r="R16" s="507"/>
-      <c r="S16" s="507"/>
-      <c r="T16" s="507"/>
-      <c r="U16" s="507"/>
-      <c r="V16" s="507"/>
-      <c r="W16" s="507"/>
-      <c r="X16" s="507"/>
-      <c r="Y16" s="507"/>
-      <c r="Z16" s="507"/>
-      <c r="AA16" s="507"/>
-      <c r="AB16" s="507"/>
-      <c r="AC16" s="507"/>
-      <c r="AD16" s="507"/>
-      <c r="AE16" s="507"/>
-      <c r="AF16" s="507"/>
-      <c r="AG16" s="507"/>
-      <c r="AH16" s="507"/>
-      <c r="AI16" s="507"/>
-      <c r="AJ16" s="507"/>
-      <c r="AK16" s="507"/>
-      <c r="AL16" s="507"/>
-      <c r="AM16" s="507"/>
-      <c r="AN16" s="507"/>
-      <c r="AO16" s="507"/>
-      <c r="AP16" s="507"/>
-      <c r="AQ16" s="507"/>
-      <c r="AR16" s="507"/>
-      <c r="AS16" s="507"/>
-      <c r="AT16" s="507"/>
-      <c r="AU16" s="507"/>
-      <c r="AV16" s="507"/>
-      <c r="AW16" s="507"/>
-      <c r="AX16" s="507"/>
-      <c r="AY16" s="507"/>
-      <c r="AZ16" s="507"/>
-      <c r="BA16" s="507"/>
-      <c r="BB16" s="507"/>
-      <c r="BC16" s="507"/>
-      <c r="BD16" s="507"/>
-      <c r="BE16" s="507"/>
-      <c r="BF16" s="507"/>
-      <c r="BG16" s="507"/>
-      <c r="BH16" s="507"/>
-      <c r="BI16" s="507"/>
-      <c r="BJ16" s="507"/>
-      <c r="BK16" s="512"/>
+      <c r="C16" s="399"/>
+      <c r="D16" s="399"/>
+      <c r="E16" s="399"/>
+      <c r="F16" s="399"/>
+      <c r="G16" s="399"/>
+      <c r="H16" s="399"/>
+      <c r="I16" s="399"/>
+      <c r="J16" s="399"/>
+      <c r="K16" s="399"/>
+      <c r="L16" s="399"/>
+      <c r="M16" s="399"/>
+      <c r="N16" s="399"/>
+      <c r="O16" s="399"/>
+      <c r="P16" s="399"/>
+      <c r="Q16" s="399"/>
+      <c r="R16" s="399"/>
+      <c r="S16" s="399"/>
+      <c r="T16" s="399"/>
+      <c r="U16" s="399"/>
+      <c r="V16" s="399"/>
+      <c r="W16" s="399"/>
+      <c r="X16" s="399"/>
+      <c r="Y16" s="399"/>
+      <c r="Z16" s="399"/>
+      <c r="AA16" s="399"/>
+      <c r="AB16" s="399"/>
+      <c r="AC16" s="399"/>
+      <c r="AD16" s="399"/>
+      <c r="AE16" s="399"/>
+      <c r="AF16" s="399"/>
+      <c r="AG16" s="399"/>
+      <c r="AH16" s="399"/>
+      <c r="AI16" s="399"/>
+      <c r="AJ16" s="399"/>
+      <c r="AK16" s="399"/>
+      <c r="AL16" s="399"/>
+      <c r="AM16" s="399"/>
+      <c r="AN16" s="399"/>
+      <c r="AO16" s="399"/>
+      <c r="AP16" s="399"/>
+      <c r="AQ16" s="399"/>
+      <c r="AR16" s="399"/>
+      <c r="AS16" s="399"/>
+      <c r="AT16" s="399"/>
+      <c r="AU16" s="399"/>
+      <c r="AV16" s="399"/>
+      <c r="AW16" s="399"/>
+      <c r="AX16" s="399"/>
+      <c r="AY16" s="399"/>
+      <c r="AZ16" s="399"/>
+      <c r="BA16" s="399"/>
+      <c r="BB16" s="399"/>
+      <c r="BC16" s="399"/>
+      <c r="BD16" s="399"/>
+      <c r="BE16" s="399"/>
+      <c r="BF16" s="399"/>
+      <c r="BG16" s="399"/>
+      <c r="BH16" s="399"/>
+      <c r="BI16" s="399"/>
+      <c r="BJ16" s="399"/>
+      <c r="BK16" s="399"/>
       <c r="BL16" s="653"/>
     </row>
     <row r="17" customHeight="1" ht="12" customFormat="1" s="78">
@@ -15017,7 +15698,7 @@
       <c r="N17" s="399"/>
       <c r="O17" s="399"/>
       <c r="P17" s="399"/>
-      <c r="Q17" s="399"/>
+      <c r="Q17" s="519"/>
       <c r="R17" s="399"/>
       <c r="S17" s="399"/>
       <c r="T17" s="399"/>
@@ -15068,68 +15749,68 @@
     </row>
     <row r="18" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A18" s="691"/>
-      <c r="B18" s="399"/>
-      <c r="C18" s="399"/>
-      <c r="D18" s="399"/>
-      <c r="E18" s="399"/>
-      <c r="F18" s="399"/>
-      <c r="G18" s="399"/>
-      <c r="H18" s="399"/>
-      <c r="I18" s="399"/>
-      <c r="J18" s="399"/>
-      <c r="K18" s="399"/>
-      <c r="L18" s="399"/>
-      <c r="M18" s="399"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="399"/>
-      <c r="P18" s="399"/>
-      <c r="Q18" s="519"/>
-      <c r="R18" s="399"/>
-      <c r="S18" s="399"/>
-      <c r="T18" s="399"/>
-      <c r="U18" s="399"/>
-      <c r="V18" s="399"/>
-      <c r="W18" s="399"/>
-      <c r="X18" s="399"/>
-      <c r="Y18" s="399"/>
-      <c r="Z18" s="399"/>
-      <c r="AA18" s="399"/>
-      <c r="AB18" s="399"/>
-      <c r="AC18" s="399"/>
-      <c r="AD18" s="399"/>
-      <c r="AE18" s="399"/>
-      <c r="AF18" s="399"/>
-      <c r="AG18" s="399"/>
-      <c r="AH18" s="399"/>
-      <c r="AI18" s="399"/>
-      <c r="AJ18" s="399"/>
-      <c r="AK18" s="399"/>
-      <c r="AL18" s="399"/>
-      <c r="AM18" s="399"/>
-      <c r="AN18" s="399"/>
-      <c r="AO18" s="399"/>
-      <c r="AP18" s="399"/>
-      <c r="AQ18" s="399"/>
-      <c r="AR18" s="399"/>
-      <c r="AS18" s="399"/>
-      <c r="AT18" s="399"/>
-      <c r="AU18" s="399"/>
-      <c r="AV18" s="399"/>
-      <c r="AW18" s="399"/>
-      <c r="AX18" s="399"/>
-      <c r="AY18" s="399"/>
-      <c r="AZ18" s="399"/>
-      <c r="BA18" s="399"/>
-      <c r="BB18" s="399"/>
-      <c r="BC18" s="399"/>
-      <c r="BD18" s="399"/>
-      <c r="BE18" s="399"/>
-      <c r="BF18" s="399"/>
-      <c r="BG18" s="399"/>
-      <c r="BH18" s="399"/>
-      <c r="BI18" s="399"/>
-      <c r="BJ18" s="399"/>
-      <c r="BK18" s="399"/>
+      <c r="B18" s="523"/>
+      <c r="C18" s="523"/>
+      <c r="D18" s="523"/>
+      <c r="E18" s="523"/>
+      <c r="F18" s="523"/>
+      <c r="G18" s="523"/>
+      <c r="H18" s="523"/>
+      <c r="I18" s="523"/>
+      <c r="J18" s="523"/>
+      <c r="K18" s="523"/>
+      <c r="L18" s="523"/>
+      <c r="M18" s="523"/>
+      <c r="N18" s="523"/>
+      <c r="O18" s="523"/>
+      <c r="P18" s="523"/>
+      <c r="Q18" s="523"/>
+      <c r="R18" s="523"/>
+      <c r="S18" s="523"/>
+      <c r="T18" s="523"/>
+      <c r="U18" s="523"/>
+      <c r="V18" s="523"/>
+      <c r="W18" s="523"/>
+      <c r="X18" s="523"/>
+      <c r="Y18" s="523"/>
+      <c r="Z18" s="523"/>
+      <c r="AA18" s="523"/>
+      <c r="AB18" s="523"/>
+      <c r="AC18" s="523"/>
+      <c r="AD18" s="523"/>
+      <c r="AE18" s="523"/>
+      <c r="AF18" s="523"/>
+      <c r="AG18" s="523"/>
+      <c r="AH18" s="523"/>
+      <c r="AI18" s="523"/>
+      <c r="AJ18" s="523"/>
+      <c r="AK18" s="523"/>
+      <c r="AL18" s="523"/>
+      <c r="AM18" s="523"/>
+      <c r="AN18" s="523"/>
+      <c r="AO18" s="523"/>
+      <c r="AP18" s="523"/>
+      <c r="AQ18" s="523"/>
+      <c r="AR18" s="523"/>
+      <c r="AS18" s="523"/>
+      <c r="AT18" s="523"/>
+      <c r="AU18" s="523"/>
+      <c r="AV18" s="523"/>
+      <c r="AW18" s="523"/>
+      <c r="AX18" s="523"/>
+      <c r="AY18" s="523"/>
+      <c r="AZ18" s="523"/>
+      <c r="BA18" s="523"/>
+      <c r="BB18" s="523"/>
+      <c r="BC18" s="523"/>
+      <c r="BD18" s="523"/>
+      <c r="BE18" s="523"/>
+      <c r="BF18" s="523"/>
+      <c r="BG18" s="523"/>
+      <c r="BH18" s="523"/>
+      <c r="BI18" s="523"/>
+      <c r="BJ18" s="523"/>
+      <c r="BK18" s="523"/>
       <c r="BL18" s="653"/>
     </row>
     <row r="19" customHeight="1" ht="12" customFormat="1" s="78">
@@ -15198,7 +15879,7 @@
       <c r="BK19" s="523"/>
       <c r="BL19" s="653"/>
     </row>
-    <row r="20" customHeight="1" ht="12" customFormat="1" s="78">
+    <row r="20" customHeight="1" ht="12">
       <c r="A20" s="691"/>
       <c r="B20" s="523"/>
       <c r="C20" s="523"/>
@@ -15595,136 +16276,70 @@
       <c r="BL25" s="653"/>
     </row>
     <row r="26" customHeight="1" ht="12">
-      <c r="A26" s="691"/>
-      <c r="B26" s="523"/>
-      <c r="C26" s="523"/>
-      <c r="D26" s="523"/>
-      <c r="E26" s="523"/>
-      <c r="F26" s="523"/>
-      <c r="G26" s="523"/>
-      <c r="H26" s="523"/>
-      <c r="I26" s="523"/>
-      <c r="J26" s="523"/>
-      <c r="K26" s="523"/>
-      <c r="L26" s="523"/>
-      <c r="M26" s="523"/>
-      <c r="N26" s="523"/>
-      <c r="O26" s="523"/>
-      <c r="P26" s="523"/>
-      <c r="Q26" s="523"/>
-      <c r="R26" s="523"/>
-      <c r="S26" s="523"/>
-      <c r="T26" s="523"/>
-      <c r="U26" s="523"/>
-      <c r="V26" s="523"/>
-      <c r="W26" s="523"/>
-      <c r="X26" s="523"/>
-      <c r="Y26" s="523"/>
-      <c r="Z26" s="523"/>
-      <c r="AA26" s="523"/>
-      <c r="AB26" s="523"/>
-      <c r="AC26" s="523"/>
-      <c r="AD26" s="523"/>
-      <c r="AE26" s="523"/>
-      <c r="AF26" s="523"/>
-      <c r="AG26" s="523"/>
-      <c r="AH26" s="523"/>
-      <c r="AI26" s="523"/>
-      <c r="AJ26" s="523"/>
-      <c r="AK26" s="523"/>
-      <c r="AL26" s="523"/>
-      <c r="AM26" s="523"/>
-      <c r="AN26" s="523"/>
-      <c r="AO26" s="523"/>
-      <c r="AP26" s="523"/>
-      <c r="AQ26" s="523"/>
-      <c r="AR26" s="523"/>
-      <c r="AS26" s="523"/>
-      <c r="AT26" s="523"/>
-      <c r="AU26" s="523"/>
-      <c r="AV26" s="523"/>
-      <c r="AW26" s="523"/>
-      <c r="AX26" s="523"/>
-      <c r="AY26" s="523"/>
-      <c r="AZ26" s="523"/>
-      <c r="BA26" s="523"/>
-      <c r="BB26" s="523"/>
-      <c r="BC26" s="523"/>
-      <c r="BD26" s="523"/>
-      <c r="BE26" s="523"/>
-      <c r="BF26" s="523"/>
-      <c r="BG26" s="523"/>
-      <c r="BH26" s="523"/>
-      <c r="BI26" s="523"/>
-      <c r="BJ26" s="523"/>
-      <c r="BK26" s="523"/>
-      <c r="BL26" s="653"/>
-    </row>
-    <row r="27" customHeight="1" ht="12">
-      <c r="A27" s="695"/>
-      <c r="B27" s="524"/>
-      <c r="C27" s="524"/>
-      <c r="D27" s="524"/>
-      <c r="E27" s="524"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="524"/>
-      <c r="H27" s="524"/>
-      <c r="I27" s="524"/>
-      <c r="J27" s="524"/>
-      <c r="K27" s="524"/>
-      <c r="L27" s="524"/>
-      <c r="M27" s="524"/>
-      <c r="N27" s="524"/>
-      <c r="O27" s="524"/>
-      <c r="P27" s="524"/>
-      <c r="Q27" s="524"/>
-      <c r="R27" s="524"/>
-      <c r="S27" s="524"/>
-      <c r="T27" s="524"/>
-      <c r="U27" s="524"/>
-      <c r="V27" s="524"/>
-      <c r="W27" s="524"/>
-      <c r="X27" s="524"/>
-      <c r="Y27" s="524"/>
-      <c r="Z27" s="524"/>
-      <c r="AA27" s="524"/>
-      <c r="AB27" s="524"/>
-      <c r="AC27" s="524"/>
-      <c r="AD27" s="524"/>
-      <c r="AE27" s="524"/>
-      <c r="AF27" s="524"/>
-      <c r="AG27" s="524"/>
-      <c r="AH27" s="524"/>
-      <c r="AI27" s="524"/>
-      <c r="AJ27" s="524"/>
-      <c r="AK27" s="524"/>
-      <c r="AL27" s="524"/>
-      <c r="AM27" s="524"/>
-      <c r="AN27" s="524"/>
-      <c r="AO27" s="524"/>
-      <c r="AP27" s="524"/>
-      <c r="AQ27" s="524"/>
-      <c r="AR27" s="524"/>
-      <c r="AS27" s="524"/>
-      <c r="AT27" s="524"/>
-      <c r="AU27" s="524"/>
-      <c r="AV27" s="524"/>
-      <c r="AW27" s="524"/>
-      <c r="AX27" s="524"/>
-      <c r="AY27" s="524"/>
-      <c r="AZ27" s="524"/>
-      <c r="BA27" s="524"/>
-      <c r="BB27" s="524"/>
-      <c r="BC27" s="524"/>
-      <c r="BD27" s="524"/>
-      <c r="BE27" s="524"/>
-      <c r="BF27" s="524"/>
-      <c r="BG27" s="524"/>
-      <c r="BH27" s="524"/>
-      <c r="BI27" s="524"/>
-      <c r="BJ27" s="524"/>
-      <c r="BK27" s="524"/>
-      <c r="BL27" s="574"/>
+      <c r="A26" s="695"/>
+      <c r="B26" s="524"/>
+      <c r="C26" s="524"/>
+      <c r="D26" s="524"/>
+      <c r="E26" s="524"/>
+      <c r="F26" s="524"/>
+      <c r="G26" s="524"/>
+      <c r="H26" s="524"/>
+      <c r="I26" s="524"/>
+      <c r="J26" s="524"/>
+      <c r="K26" s="524"/>
+      <c r="L26" s="524"/>
+      <c r="M26" s="524"/>
+      <c r="N26" s="524"/>
+      <c r="O26" s="524"/>
+      <c r="P26" s="524"/>
+      <c r="Q26" s="524"/>
+      <c r="R26" s="524"/>
+      <c r="S26" s="524"/>
+      <c r="T26" s="524"/>
+      <c r="U26" s="524"/>
+      <c r="V26" s="524"/>
+      <c r="W26" s="524"/>
+      <c r="X26" s="524"/>
+      <c r="Y26" s="524"/>
+      <c r="Z26" s="524"/>
+      <c r="AA26" s="524"/>
+      <c r="AB26" s="524"/>
+      <c r="AC26" s="524"/>
+      <c r="AD26" s="524"/>
+      <c r="AE26" s="524"/>
+      <c r="AF26" s="524"/>
+      <c r="AG26" s="524"/>
+      <c r="AH26" s="524"/>
+      <c r="AI26" s="524"/>
+      <c r="AJ26" s="524"/>
+      <c r="AK26" s="524"/>
+      <c r="AL26" s="524"/>
+      <c r="AM26" s="524"/>
+      <c r="AN26" s="524"/>
+      <c r="AO26" s="524"/>
+      <c r="AP26" s="524"/>
+      <c r="AQ26" s="524"/>
+      <c r="AR26" s="524"/>
+      <c r="AS26" s="524"/>
+      <c r="AT26" s="524"/>
+      <c r="AU26" s="524"/>
+      <c r="AV26" s="524"/>
+      <c r="AW26" s="524"/>
+      <c r="AX26" s="524"/>
+      <c r="AY26" s="524"/>
+      <c r="AZ26" s="524"/>
+      <c r="BA26" s="524"/>
+      <c r="BB26" s="524"/>
+      <c r="BC26" s="524"/>
+      <c r="BD26" s="524"/>
+      <c r="BE26" s="524"/>
+      <c r="BF26" s="524"/>
+      <c r="BG26" s="524"/>
+      <c r="BH26" s="524"/>
+      <c r="BI26" s="524"/>
+      <c r="BJ26" s="524"/>
+      <c r="BK26" s="524"/>
+      <c r="BL26" s="574"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -15762,8 +16377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="140" zoomScaleNormal="140" workbookViewId="0" topLeftCell="A7">
-      <selection activeCell="Z24" sqref="Z24" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="140" zoomScaleNormal="140" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="AH20" sqref="AH20:AN20" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15771,7 +16386,7 @@
     <col min="1" max="11" width="2.125" style="24"/>
     <col min="12" max="12" width="2" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="2.125" style="24"/>
-    <col min="16" max="16" width="6.875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="8.296875" style="24" customWidth="1"/>
     <col min="17" max="27" width="2.125" style="24"/>
     <col min="28" max="28" width="5.375" style="24" customWidth="1"/>
     <col min="29" max="33" width="2.125" style="24"/>
@@ -15782,7 +16397,7 @@
     <col min="38" max="38" width="3.125" style="24" customWidth="1"/>
     <col min="39" max="39" width="2.125" style="24"/>
     <col min="39" max="39" width="3.125" style="24" customWidth="1"/>
-    <col min="40" max="40" width="3.125" style="24" customWidth="1"/>
+    <col min="40" max="40" width="4.5" style="24" customWidth="1"/>
     <col min="41" max="283" width="2.125" style="24"/>
     <col min="284" max="284" width="5.375" style="24" customWidth="1"/>
     <col min="285" max="539" width="2.125" style="24"/>
@@ -16406,7 +17021,7 @@
       <c r="BM7" s="703"/>
       <c r="BN7" s="705"/>
     </row>
-    <row r="8" customHeight="1" ht="26">
+    <row r="8" customHeight="1" ht="24">
       <c r="A8" s="706" t="s">
         <v>54</v>
       </c>
@@ -16533,10 +17148,12 @@
         <v>64</v>
       </c>
       <c r="X9" s="727"/>
-      <c r="Y9" s="711"/>
-      <c r="Z9" s="712"/>
-      <c r="AA9" s="712"/>
-      <c r="AB9" s="713"/>
+      <c r="Y9" s="726" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" s="736"/>
+      <c r="AA9" s="736"/>
+      <c r="AB9" s="727"/>
       <c r="AC9" s="730" t="s">
         <v>159</v>
       </c>
@@ -50212,7 +50829,7 @@
       <c r="B41" s="302"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="163">
     <mergeCell ref="A2:AA3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:O4"/>
@@ -50247,6 +50864,7 @@
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AB9"/>
     <mergeCell ref="AC9:AG9"/>
     <mergeCell ref="AH9:AN9"/>
     <mergeCell ref="B10:L10"/>
@@ -50386,7 +51004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1">
+    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A4" tabSelected="1">
       <selection activeCell="BA19" sqref="BA19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -51169,4 +51787,3276 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="AH28" activeCellId="0" sqref="AH28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
+  <cols>
+    <col min="1" max="64" width="2.125" style="0"/>
+    <col min="65" max="65" width="3.625" style="799" customWidth="1"/>
+    <col min="66" max="66" width="0.125" style="799" customWidth="1"/>
+    <col min="67" max="320" width="2.125" style="0"/>
+    <col min="321" max="321" width="3.625" style="799" customWidth="1"/>
+    <col min="322" max="322" width="0.125" style="799" customWidth="1"/>
+    <col min="323" max="576" width="2.125" style="0"/>
+    <col min="577" max="577" width="3.625" style="799" customWidth="1"/>
+    <col min="578" max="578" width="0.125" style="799" customWidth="1"/>
+    <col min="579" max="832" width="2.125" style="0"/>
+    <col min="833" max="833" width="3.625" style="799" customWidth="1"/>
+    <col min="834" max="834" width="0.125" style="799" customWidth="1"/>
+    <col min="835" max="1088" width="2.125" style="0"/>
+    <col min="1089" max="1089" width="3.625" style="799" customWidth="1"/>
+    <col min="1090" max="1090" width="0.125" style="799" customWidth="1"/>
+    <col min="1091" max="1344" width="2.125" style="0"/>
+    <col min="1345" max="1345" width="3.625" style="799" customWidth="1"/>
+    <col min="1346" max="1346" width="0.125" style="799" customWidth="1"/>
+    <col min="1347" max="1600" width="2.125" style="0"/>
+    <col min="1601" max="1601" width="3.625" style="799" customWidth="1"/>
+    <col min="1602" max="1602" width="0.125" style="799" customWidth="1"/>
+    <col min="1603" max="1856" width="2.125" style="0"/>
+    <col min="1857" max="1857" width="3.625" style="799" customWidth="1"/>
+    <col min="1858" max="1858" width="0.125" style="799" customWidth="1"/>
+    <col min="1859" max="2112" width="2.125" style="0"/>
+    <col min="2113" max="2113" width="3.625" style="799" customWidth="1"/>
+    <col min="2114" max="2114" width="0.125" style="799" customWidth="1"/>
+    <col min="2115" max="2368" width="2.125" style="0"/>
+    <col min="2369" max="2369" width="3.625" style="799" customWidth="1"/>
+    <col min="2370" max="2370" width="0.125" style="799" customWidth="1"/>
+    <col min="2371" max="2624" width="2.125" style="0"/>
+    <col min="2625" max="2625" width="3.625" style="799" customWidth="1"/>
+    <col min="2626" max="2626" width="0.125" style="799" customWidth="1"/>
+    <col min="2627" max="2880" width="2.125" style="0"/>
+    <col min="2881" max="2881" width="3.625" style="799" customWidth="1"/>
+    <col min="2882" max="2882" width="0.125" style="799" customWidth="1"/>
+    <col min="2883" max="3136" width="2.125" style="0"/>
+    <col min="3137" max="3137" width="3.625" style="799" customWidth="1"/>
+    <col min="3138" max="3138" width="0.125" style="799" customWidth="1"/>
+    <col min="3139" max="3392" width="2.125" style="0"/>
+    <col min="3393" max="3393" width="3.625" style="799" customWidth="1"/>
+    <col min="3394" max="3394" width="0.125" style="799" customWidth="1"/>
+    <col min="3395" max="3648" width="2.125" style="0"/>
+    <col min="3649" max="3649" width="3.625" style="799" customWidth="1"/>
+    <col min="3650" max="3650" width="0.125" style="799" customWidth="1"/>
+    <col min="3651" max="3904" width="2.125" style="0"/>
+    <col min="3905" max="3905" width="3.625" style="799" customWidth="1"/>
+    <col min="3906" max="3906" width="0.125" style="799" customWidth="1"/>
+    <col min="3907" max="4160" width="2.125" style="0"/>
+    <col min="4161" max="4161" width="3.625" style="799" customWidth="1"/>
+    <col min="4162" max="4162" width="0.125" style="799" customWidth="1"/>
+    <col min="4163" max="4416" width="2.125" style="0"/>
+    <col min="4417" max="4417" width="3.625" style="799" customWidth="1"/>
+    <col min="4418" max="4418" width="0.125" style="799" customWidth="1"/>
+    <col min="4419" max="4672" width="2.125" style="0"/>
+    <col min="4673" max="4673" width="3.625" style="799" customWidth="1"/>
+    <col min="4674" max="4674" width="0.125" style="799" customWidth="1"/>
+    <col min="4675" max="4928" width="2.125" style="0"/>
+    <col min="4929" max="4929" width="3.625" style="799" customWidth="1"/>
+    <col min="4930" max="4930" width="0.125" style="799" customWidth="1"/>
+    <col min="4931" max="5184" width="2.125" style="0"/>
+    <col min="5185" max="5185" width="3.625" style="799" customWidth="1"/>
+    <col min="5186" max="5186" width="0.125" style="799" customWidth="1"/>
+    <col min="5187" max="5440" width="2.125" style="0"/>
+    <col min="5441" max="5441" width="3.625" style="799" customWidth="1"/>
+    <col min="5442" max="5442" width="0.125" style="799" customWidth="1"/>
+    <col min="5443" max="5696" width="2.125" style="0"/>
+    <col min="5697" max="5697" width="3.625" style="799" customWidth="1"/>
+    <col min="5698" max="5698" width="0.125" style="799" customWidth="1"/>
+    <col min="5699" max="5952" width="2.125" style="0"/>
+    <col min="5953" max="5953" width="3.625" style="799" customWidth="1"/>
+    <col min="5954" max="5954" width="0.125" style="799" customWidth="1"/>
+    <col min="5955" max="6208" width="2.125" style="0"/>
+    <col min="6209" max="6209" width="3.625" style="799" customWidth="1"/>
+    <col min="6210" max="6210" width="0.125" style="799" customWidth="1"/>
+    <col min="6211" max="6464" width="2.125" style="0"/>
+    <col min="6465" max="6465" width="3.625" style="799" customWidth="1"/>
+    <col min="6466" max="6466" width="0.125" style="799" customWidth="1"/>
+    <col min="6467" max="6720" width="2.125" style="0"/>
+    <col min="6721" max="6721" width="3.625" style="799" customWidth="1"/>
+    <col min="6722" max="6722" width="0.125" style="799" customWidth="1"/>
+    <col min="6723" max="6976" width="2.125" style="0"/>
+    <col min="6977" max="6977" width="3.625" style="799" customWidth="1"/>
+    <col min="6978" max="6978" width="0.125" style="799" customWidth="1"/>
+    <col min="6979" max="7232" width="2.125" style="0"/>
+    <col min="7233" max="7233" width="3.625" style="799" customWidth="1"/>
+    <col min="7234" max="7234" width="0.125" style="799" customWidth="1"/>
+    <col min="7235" max="7488" width="2.125" style="0"/>
+    <col min="7489" max="7489" width="3.625" style="799" customWidth="1"/>
+    <col min="7490" max="7490" width="0.125" style="799" customWidth="1"/>
+    <col min="7491" max="7744" width="2.125" style="0"/>
+    <col min="7745" max="7745" width="3.625" style="799" customWidth="1"/>
+    <col min="7746" max="7746" width="0.125" style="799" customWidth="1"/>
+    <col min="7747" max="8000" width="2.125" style="0"/>
+    <col min="8001" max="8001" width="3.625" style="799" customWidth="1"/>
+    <col min="8002" max="8002" width="0.125" style="799" customWidth="1"/>
+    <col min="8003" max="8256" width="2.125" style="0"/>
+    <col min="8257" max="8257" width="3.625" style="799" customWidth="1"/>
+    <col min="8258" max="8258" width="0.125" style="799" customWidth="1"/>
+    <col min="8259" max="8512" width="2.125" style="0"/>
+    <col min="8513" max="8513" width="3.625" style="799" customWidth="1"/>
+    <col min="8514" max="8514" width="0.125" style="799" customWidth="1"/>
+    <col min="8515" max="8768" width="2.125" style="0"/>
+    <col min="8769" max="8769" width="3.625" style="799" customWidth="1"/>
+    <col min="8770" max="8770" width="0.125" style="799" customWidth="1"/>
+    <col min="8771" max="9024" width="2.125" style="0"/>
+    <col min="9025" max="9025" width="3.625" style="799" customWidth="1"/>
+    <col min="9026" max="9026" width="0.125" style="799" customWidth="1"/>
+    <col min="9027" max="9280" width="2.125" style="0"/>
+    <col min="9281" max="9281" width="3.625" style="799" customWidth="1"/>
+    <col min="9282" max="9282" width="0.125" style="799" customWidth="1"/>
+    <col min="9283" max="9536" width="2.125" style="0"/>
+    <col min="9537" max="9537" width="3.625" style="799" customWidth="1"/>
+    <col min="9538" max="9538" width="0.125" style="799" customWidth="1"/>
+    <col min="9539" max="9792" width="2.125" style="0"/>
+    <col min="9793" max="9793" width="3.625" style="799" customWidth="1"/>
+    <col min="9794" max="9794" width="0.125" style="799" customWidth="1"/>
+    <col min="9795" max="10048" width="2.125" style="0"/>
+    <col min="10049" max="10049" width="3.625" style="799" customWidth="1"/>
+    <col min="10050" max="10050" width="0.125" style="799" customWidth="1"/>
+    <col min="10051" max="10304" width="2.125" style="0"/>
+    <col min="10305" max="10305" width="3.625" style="799" customWidth="1"/>
+    <col min="10306" max="10306" width="0.125" style="799" customWidth="1"/>
+    <col min="10307" max="10560" width="2.125" style="0"/>
+    <col min="10561" max="10561" width="3.625" style="799" customWidth="1"/>
+    <col min="10562" max="10562" width="0.125" style="799" customWidth="1"/>
+    <col min="10563" max="10816" width="2.125" style="0"/>
+    <col min="10817" max="10817" width="3.625" style="799" customWidth="1"/>
+    <col min="10818" max="10818" width="0.125" style="799" customWidth="1"/>
+    <col min="10819" max="11072" width="2.125" style="0"/>
+    <col min="11073" max="11073" width="3.625" style="799" customWidth="1"/>
+    <col min="11074" max="11074" width="0.125" style="799" customWidth="1"/>
+    <col min="11075" max="11328" width="2.125" style="0"/>
+    <col min="11329" max="11329" width="3.625" style="799" customWidth="1"/>
+    <col min="11330" max="11330" width="0.125" style="799" customWidth="1"/>
+    <col min="11331" max="11584" width="2.125" style="0"/>
+    <col min="11585" max="11585" width="3.625" style="799" customWidth="1"/>
+    <col min="11586" max="11586" width="0.125" style="799" customWidth="1"/>
+    <col min="11587" max="11840" width="2.125" style="0"/>
+    <col min="11841" max="11841" width="3.625" style="799" customWidth="1"/>
+    <col min="11842" max="11842" width="0.125" style="799" customWidth="1"/>
+    <col min="11843" max="12096" width="2.125" style="0"/>
+    <col min="12097" max="12097" width="3.625" style="799" customWidth="1"/>
+    <col min="12098" max="12098" width="0.125" style="799" customWidth="1"/>
+    <col min="12099" max="12352" width="2.125" style="0"/>
+    <col min="12353" max="12353" width="3.625" style="799" customWidth="1"/>
+    <col min="12354" max="12354" width="0.125" style="799" customWidth="1"/>
+    <col min="12355" max="12608" width="2.125" style="0"/>
+    <col min="12609" max="12609" width="3.625" style="799" customWidth="1"/>
+    <col min="12610" max="12610" width="0.125" style="799" customWidth="1"/>
+    <col min="12611" max="12864" width="2.125" style="0"/>
+    <col min="12865" max="12865" width="3.625" style="799" customWidth="1"/>
+    <col min="12866" max="12866" width="0.125" style="799" customWidth="1"/>
+    <col min="12867" max="13120" width="2.125" style="0"/>
+    <col min="13121" max="13121" width="3.625" style="799" customWidth="1"/>
+    <col min="13122" max="13122" width="0.125" style="799" customWidth="1"/>
+    <col min="13123" max="13376" width="2.125" style="0"/>
+    <col min="13377" max="13377" width="3.625" style="799" customWidth="1"/>
+    <col min="13378" max="13378" width="0.125" style="799" customWidth="1"/>
+    <col min="13379" max="13632" width="2.125" style="0"/>
+    <col min="13633" max="13633" width="3.625" style="799" customWidth="1"/>
+    <col min="13634" max="13634" width="0.125" style="799" customWidth="1"/>
+    <col min="13635" max="13888" width="2.125" style="0"/>
+    <col min="13889" max="13889" width="3.625" style="799" customWidth="1"/>
+    <col min="13890" max="13890" width="0.125" style="799" customWidth="1"/>
+    <col min="13891" max="14144" width="2.125" style="0"/>
+    <col min="14145" max="14145" width="3.625" style="799" customWidth="1"/>
+    <col min="14146" max="14146" width="0.125" style="799" customWidth="1"/>
+    <col min="14147" max="14400" width="2.125" style="0"/>
+    <col min="14401" max="14401" width="3.625" style="799" customWidth="1"/>
+    <col min="14402" max="14402" width="0.125" style="799" customWidth="1"/>
+    <col min="14403" max="14656" width="2.125" style="0"/>
+    <col min="14657" max="14657" width="3.625" style="799" customWidth="1"/>
+    <col min="14658" max="14658" width="0.125" style="799" customWidth="1"/>
+    <col min="14659" max="14912" width="2.125" style="0"/>
+    <col min="14913" max="14913" width="3.625" style="799" customWidth="1"/>
+    <col min="14914" max="14914" width="0.125" style="799" customWidth="1"/>
+    <col min="14915" max="15168" width="2.125" style="0"/>
+    <col min="15169" max="15169" width="3.625" style="799" customWidth="1"/>
+    <col min="15170" max="15170" width="0.125" style="799" customWidth="1"/>
+    <col min="15171" max="15424" width="2.125" style="0"/>
+    <col min="15425" max="15425" width="3.625" style="799" customWidth="1"/>
+    <col min="15426" max="15426" width="0.125" style="799" customWidth="1"/>
+    <col min="15427" max="15680" width="2.125" style="0"/>
+    <col min="15681" max="15681" width="3.625" style="799" customWidth="1"/>
+    <col min="15682" max="15682" width="0.125" style="799" customWidth="1"/>
+    <col min="15683" max="15936" width="2.125" style="0"/>
+    <col min="15937" max="15937" width="3.625" style="799" customWidth="1"/>
+    <col min="15938" max="15938" width="0.125" style="799" customWidth="1"/>
+    <col min="15939" max="16192" width="2.125" style="0"/>
+    <col min="16193" max="16193" width="3.625" style="799" customWidth="1"/>
+    <col min="16194" max="16194" width="0.125" style="799" customWidth="1"/>
+    <col min="16195" max="16384" width="2.125" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A1" s="800"/>
+      <c r="B1" s="801"/>
+      <c r="C1" s="801"/>
+      <c r="D1" s="801"/>
+      <c r="E1" s="801"/>
+      <c r="F1" s="801"/>
+      <c r="G1" s="801"/>
+      <c r="H1" s="801"/>
+      <c r="I1" s="801"/>
+      <c r="J1" s="801"/>
+      <c r="K1" s="801"/>
+      <c r="L1" s="801"/>
+      <c r="M1" s="801"/>
+      <c r="N1" s="801"/>
+      <c r="O1" s="801"/>
+      <c r="P1" s="801"/>
+      <c r="Q1" s="801"/>
+      <c r="R1" s="801"/>
+      <c r="S1" s="801"/>
+      <c r="T1" s="801"/>
+      <c r="U1" s="801"/>
+      <c r="V1" s="801"/>
+      <c r="W1" s="801"/>
+      <c r="X1" s="801"/>
+      <c r="Y1" s="801"/>
+      <c r="Z1" s="802"/>
+      <c r="AA1" s="801"/>
+      <c r="AB1" s="801"/>
+      <c r="AC1" s="801"/>
+      <c r="AD1" s="801"/>
+      <c r="AE1" s="801"/>
+      <c r="AF1" s="801"/>
+      <c r="AG1" s="801"/>
+      <c r="AH1" s="801"/>
+      <c r="AI1" s="801"/>
+      <c r="AJ1" s="801"/>
+      <c r="AK1" s="801"/>
+      <c r="AL1" s="801"/>
+      <c r="AM1" s="801"/>
+      <c r="AN1" s="801"/>
+      <c r="AO1" s="801"/>
+      <c r="AP1" s="801"/>
+      <c r="AQ1" s="801"/>
+      <c r="AR1" s="801"/>
+      <c r="AS1" s="801"/>
+      <c r="AT1" s="801"/>
+      <c r="AU1" s="801"/>
+      <c r="AV1" s="801"/>
+      <c r="AW1" s="801"/>
+      <c r="AX1" s="801"/>
+      <c r="AY1" s="801"/>
+      <c r="AZ1" s="801"/>
+      <c r="BA1" s="801"/>
+      <c r="BB1" s="801"/>
+      <c r="BC1" s="801"/>
+      <c r="BD1" s="801"/>
+      <c r="BE1" s="801"/>
+      <c r="BF1" s="801"/>
+      <c r="BG1" s="801"/>
+      <c r="BH1" s="801"/>
+      <c r="BI1" s="801"/>
+      <c r="BJ1" s="801"/>
+      <c r="BK1" s="801"/>
+      <c r="BL1" s="801"/>
+      <c r="BM1" s="801"/>
+      <c r="BN1" s="803"/>
+    </row>
+    <row r="2" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A2" s="804" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="805"/>
+      <c r="C2" s="805"/>
+      <c r="D2" s="805"/>
+      <c r="E2" s="805"/>
+      <c r="F2" s="805"/>
+      <c r="G2" s="805"/>
+      <c r="H2" s="805"/>
+      <c r="I2" s="805"/>
+      <c r="J2" s="805"/>
+      <c r="K2" s="805"/>
+      <c r="L2" s="805"/>
+      <c r="M2" s="805"/>
+      <c r="N2" s="805"/>
+      <c r="O2" s="805"/>
+      <c r="P2" s="805"/>
+      <c r="Q2" s="805"/>
+      <c r="R2" s="805"/>
+      <c r="S2" s="805"/>
+      <c r="T2" s="805"/>
+      <c r="U2" s="805"/>
+      <c r="V2" s="805"/>
+      <c r="W2" s="805"/>
+      <c r="X2" s="805"/>
+      <c r="Y2" s="805"/>
+      <c r="Z2" s="805"/>
+      <c r="AA2" s="595"/>
+      <c r="AB2" s="595"/>
+      <c r="AC2" s="595"/>
+      <c r="AD2" s="595"/>
+      <c r="AE2" s="595"/>
+      <c r="AF2" s="595"/>
+      <c r="AG2" s="595"/>
+      <c r="AH2" s="595"/>
+      <c r="AI2" s="595"/>
+      <c r="AJ2" s="595"/>
+      <c r="AK2" s="595"/>
+      <c r="AL2" s="595"/>
+      <c r="AM2" s="595"/>
+      <c r="AN2" s="595"/>
+      <c r="AO2" s="595"/>
+      <c r="AP2" s="595"/>
+      <c r="AQ2" s="806"/>
+      <c r="AR2" s="806"/>
+      <c r="AS2" s="806"/>
+      <c r="AT2" s="806"/>
+      <c r="AU2" s="806"/>
+      <c r="AV2" s="806"/>
+      <c r="AW2" s="807"/>
+      <c r="AX2" s="807"/>
+      <c r="AY2" s="807"/>
+      <c r="AZ2" s="807"/>
+      <c r="BA2" s="807"/>
+      <c r="BB2" s="807"/>
+      <c r="BC2" s="807"/>
+      <c r="BD2" s="807"/>
+      <c r="BE2" s="807"/>
+      <c r="BF2" s="807"/>
+      <c r="BG2" s="807"/>
+      <c r="BH2" s="807"/>
+      <c r="BI2" s="807"/>
+      <c r="BJ2" s="807"/>
+      <c r="BK2" s="807"/>
+      <c r="BL2" s="807"/>
+      <c r="BM2" s="807"/>
+      <c r="BN2" s="808"/>
+    </row>
+    <row r="3" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A3" s="804"/>
+      <c r="B3" s="805"/>
+      <c r="C3" s="805"/>
+      <c r="D3" s="805"/>
+      <c r="E3" s="805"/>
+      <c r="F3" s="805"/>
+      <c r="G3" s="805"/>
+      <c r="H3" s="805"/>
+      <c r="I3" s="805"/>
+      <c r="J3" s="805"/>
+      <c r="K3" s="805"/>
+      <c r="L3" s="805"/>
+      <c r="M3" s="805"/>
+      <c r="N3" s="805"/>
+      <c r="O3" s="805"/>
+      <c r="P3" s="805"/>
+      <c r="Q3" s="805"/>
+      <c r="R3" s="805"/>
+      <c r="S3" s="805"/>
+      <c r="T3" s="805"/>
+      <c r="U3" s="805"/>
+      <c r="V3" s="805"/>
+      <c r="W3" s="805"/>
+      <c r="X3" s="805"/>
+      <c r="Y3" s="805"/>
+      <c r="Z3" s="805"/>
+      <c r="AA3" s="595"/>
+      <c r="AB3" s="595"/>
+      <c r="AC3" s="595"/>
+      <c r="AD3" s="595"/>
+      <c r="AE3" s="595"/>
+      <c r="AF3" s="595"/>
+      <c r="AG3" s="595"/>
+      <c r="AH3" s="595"/>
+      <c r="AI3" s="595"/>
+      <c r="AJ3" s="595"/>
+      <c r="AK3" s="595"/>
+      <c r="AL3" s="595"/>
+      <c r="AM3" s="595"/>
+      <c r="AN3" s="595"/>
+      <c r="AO3" s="595"/>
+      <c r="AP3" s="595"/>
+      <c r="AQ3" s="806"/>
+      <c r="AR3" s="806"/>
+      <c r="AS3" s="806"/>
+      <c r="AT3" s="806"/>
+      <c r="AU3" s="806"/>
+      <c r="AV3" s="806"/>
+      <c r="AW3" s="806"/>
+      <c r="AX3" s="806"/>
+      <c r="AY3" s="806"/>
+      <c r="AZ3" s="806"/>
+      <c r="BA3" s="806"/>
+      <c r="BB3" s="806"/>
+      <c r="BC3" s="806"/>
+      <c r="BD3" s="806"/>
+      <c r="BE3" s="806"/>
+      <c r="BF3" s="806"/>
+      <c r="BG3" s="806"/>
+      <c r="BH3" s="806"/>
+      <c r="BI3" s="806"/>
+      <c r="BJ3" s="806"/>
+      <c r="BK3" s="806"/>
+      <c r="BL3" s="806"/>
+      <c r="BM3" s="806"/>
+      <c r="BN3" s="809"/>
+    </row>
+    <row r="4" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A4" s="810" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="811"/>
+      <c r="C4" s="811"/>
+      <c r="D4" s="811"/>
+      <c r="E4" s="811"/>
+      <c r="F4" s="812"/>
+      <c r="G4" s="813" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="814"/>
+      <c r="I4" s="814"/>
+      <c r="J4" s="814"/>
+      <c r="K4" s="814"/>
+      <c r="L4" s="814"/>
+      <c r="M4" s="814"/>
+      <c r="N4" s="815"/>
+      <c r="O4" s="816" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="817"/>
+      <c r="Q4" s="817"/>
+      <c r="R4" s="817"/>
+      <c r="S4" s="817"/>
+      <c r="T4" s="818"/>
+      <c r="U4" s="819" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="820"/>
+      <c r="W4" s="820"/>
+      <c r="X4" s="820"/>
+      <c r="Y4" s="820"/>
+      <c r="Z4" s="820"/>
+      <c r="AA4" s="820"/>
+      <c r="AB4" s="820"/>
+      <c r="AC4" s="820"/>
+      <c r="AD4" s="820"/>
+      <c r="AE4" s="820"/>
+      <c r="AF4" s="820"/>
+      <c r="AG4" s="820"/>
+      <c r="AH4" s="820"/>
+      <c r="AI4" s="820"/>
+      <c r="AJ4" s="820"/>
+      <c r="AK4" s="820"/>
+      <c r="AL4" s="820"/>
+      <c r="AM4" s="820"/>
+      <c r="AN4" s="820"/>
+      <c r="AO4" s="820"/>
+      <c r="AP4" s="820"/>
+      <c r="AQ4" s="820"/>
+      <c r="AR4" s="820"/>
+      <c r="AS4" s="820"/>
+      <c r="AT4" s="820"/>
+      <c r="AU4" s="820"/>
+      <c r="AV4" s="821"/>
+      <c r="AW4" s="822" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX4" s="823"/>
+      <c r="AY4" s="824"/>
+      <c r="AZ4" s="825">
+        <v>45072</v>
+      </c>
+      <c r="BA4" s="826"/>
+      <c r="BB4" s="826"/>
+      <c r="BC4" s="826"/>
+      <c r="BD4" s="826"/>
+      <c r="BE4" s="826"/>
+      <c r="BF4" s="822" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG4" s="823"/>
+      <c r="BH4" s="824"/>
+      <c r="BI4" s="825" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ4" s="826"/>
+      <c r="BK4" s="826"/>
+      <c r="BL4" s="826"/>
+      <c r="BM4" s="826"/>
+      <c r="BN4" s="827"/>
+    </row>
+    <row r="5" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A5" s="828" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="829"/>
+      <c r="C5" s="829"/>
+      <c r="D5" s="829"/>
+      <c r="E5" s="829"/>
+      <c r="F5" s="830"/>
+      <c r="G5" s="831" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="831"/>
+      <c r="I5" s="831"/>
+      <c r="J5" s="831"/>
+      <c r="K5" s="831"/>
+      <c r="L5" s="831"/>
+      <c r="M5" s="831"/>
+      <c r="N5" s="832"/>
+      <c r="O5" s="828" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="829"/>
+      <c r="Q5" s="829"/>
+      <c r="R5" s="829"/>
+      <c r="S5" s="829"/>
+      <c r="T5" s="830"/>
+      <c r="U5" s="833"/>
+      <c r="V5" s="834"/>
+      <c r="W5" s="834"/>
+      <c r="X5" s="834"/>
+      <c r="Y5" s="834"/>
+      <c r="Z5" s="834"/>
+      <c r="AA5" s="834"/>
+      <c r="AB5" s="834"/>
+      <c r="AC5" s="834"/>
+      <c r="AD5" s="834"/>
+      <c r="AE5" s="834"/>
+      <c r="AF5" s="834"/>
+      <c r="AG5" s="834"/>
+      <c r="AH5" s="834"/>
+      <c r="AI5" s="834"/>
+      <c r="AJ5" s="834"/>
+      <c r="AK5" s="834"/>
+      <c r="AL5" s="834"/>
+      <c r="AM5" s="834"/>
+      <c r="AN5" s="834"/>
+      <c r="AO5" s="834"/>
+      <c r="AP5" s="834"/>
+      <c r="AQ5" s="834"/>
+      <c r="AR5" s="834"/>
+      <c r="AS5" s="834"/>
+      <c r="AT5" s="834"/>
+      <c r="AU5" s="834"/>
+      <c r="AV5" s="835"/>
+      <c r="AW5" s="836" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX5" s="837"/>
+      <c r="AY5" s="838"/>
+      <c r="AZ5" s="837"/>
+      <c r="BA5" s="837"/>
+      <c r="BB5" s="837"/>
+      <c r="BC5" s="837"/>
+      <c r="BD5" s="837"/>
+      <c r="BE5" s="837"/>
+      <c r="BF5" s="836" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG5" s="837"/>
+      <c r="BH5" s="838"/>
+      <c r="BI5" s="837"/>
+      <c r="BJ5" s="834"/>
+      <c r="BK5" s="834"/>
+      <c r="BL5" s="834"/>
+      <c r="BM5" s="834"/>
+      <c r="BN5" s="835"/>
+    </row>
+    <row r="6" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A6" s="839"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="177"/>
+      <c r="V6" s="177"/>
+      <c r="W6" s="177"/>
+      <c r="X6" s="177"/>
+      <c r="Y6" s="177"/>
+      <c r="Z6" s="177"/>
+      <c r="AA6" s="177"/>
+      <c r="AB6" s="177"/>
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="177"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="177"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="177"/>
+      <c r="AN6" s="177"/>
+      <c r="AO6" s="177"/>
+      <c r="AP6" s="595"/>
+      <c r="AQ6" s="595"/>
+      <c r="AR6" s="595"/>
+      <c r="AS6" s="595"/>
+      <c r="AT6" s="595"/>
+      <c r="AU6" s="595"/>
+      <c r="AV6" s="595"/>
+      <c r="AW6" s="840" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX6" s="841"/>
+      <c r="AY6" s="841"/>
+      <c r="AZ6" s="841"/>
+      <c r="BA6" s="841"/>
+      <c r="BB6" s="841"/>
+      <c r="BC6" s="841"/>
+      <c r="BD6" s="841"/>
+      <c r="BE6" s="841"/>
+      <c r="BF6" s="841"/>
+      <c r="BG6" s="841"/>
+      <c r="BH6" s="841"/>
+      <c r="BI6" s="841"/>
+      <c r="BJ6" s="841"/>
+      <c r="BK6" s="841"/>
+      <c r="BL6" s="841"/>
+      <c r="BM6" s="842"/>
+      <c r="BN6" s="601"/>
+    </row>
+    <row r="7" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A7" s="839"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
+      <c r="K7" s="177"/>
+      <c r="L7" s="177"/>
+      <c r="M7" s="177"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="177"/>
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="177"/>
+      <c r="T7" s="177"/>
+      <c r="U7" s="177"/>
+      <c r="V7" s="177"/>
+      <c r="W7" s="177"/>
+      <c r="X7" s="177"/>
+      <c r="Y7" s="177"/>
+      <c r="Z7" s="177"/>
+      <c r="AA7" s="177"/>
+      <c r="AB7" s="177"/>
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="177"/>
+      <c r="AE7" s="177"/>
+      <c r="AF7" s="177"/>
+      <c r="AG7" s="177"/>
+      <c r="AH7" s="177"/>
+      <c r="AI7" s="177"/>
+      <c r="AJ7" s="177"/>
+      <c r="AK7" s="177"/>
+      <c r="AL7" s="177"/>
+      <c r="AM7" s="177"/>
+      <c r="AN7" s="177"/>
+      <c r="AO7" s="177"/>
+      <c r="AP7" s="595"/>
+      <c r="AQ7" s="595"/>
+      <c r="AR7" s="595"/>
+      <c r="AS7" s="595"/>
+      <c r="AT7" s="595"/>
+      <c r="AU7" s="595"/>
+      <c r="AV7" s="595"/>
+      <c r="AW7" s="843"/>
+      <c r="AX7" s="844"/>
+      <c r="AY7" s="844"/>
+      <c r="AZ7" s="844"/>
+      <c r="BA7" s="844"/>
+      <c r="BB7" s="844"/>
+      <c r="BC7" s="844"/>
+      <c r="BD7" s="844"/>
+      <c r="BE7" s="844"/>
+      <c r="BF7" s="844"/>
+      <c r="BG7" s="844"/>
+      <c r="BH7" s="844"/>
+      <c r="BI7" s="844"/>
+      <c r="BJ7" s="844"/>
+      <c r="BK7" s="844"/>
+      <c r="BL7" s="844"/>
+      <c r="BM7" s="845"/>
+      <c r="BN7" s="601"/>
+    </row>
+    <row r="8" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A8" s="839"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="177"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="177"/>
+      <c r="P8" s="177"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="177"/>
+      <c r="S8" s="177"/>
+      <c r="T8" s="177"/>
+      <c r="U8" s="177"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="177"/>
+      <c r="AA8" s="177"/>
+      <c r="AB8" s="177"/>
+      <c r="AC8" s="177"/>
+      <c r="AD8" s="177"/>
+      <c r="AE8" s="177"/>
+      <c r="AF8" s="177"/>
+      <c r="AG8" s="177"/>
+      <c r="AH8" s="177"/>
+      <c r="AI8" s="177"/>
+      <c r="AJ8" s="177"/>
+      <c r="AK8" s="177"/>
+      <c r="AL8" s="177"/>
+      <c r="AM8" s="177"/>
+      <c r="AN8" s="177"/>
+      <c r="AO8" s="177"/>
+      <c r="AP8" s="595"/>
+      <c r="AQ8" s="595"/>
+      <c r="AR8" s="595"/>
+      <c r="AS8" s="595"/>
+      <c r="AT8" s="595"/>
+      <c r="AU8" s="595"/>
+      <c r="AV8" s="595"/>
+      <c r="AW8" s="846"/>
+      <c r="AX8" s="595"/>
+      <c r="AY8" s="595"/>
+      <c r="AZ8" s="595"/>
+      <c r="BA8" s="595"/>
+      <c r="BB8" s="595"/>
+      <c r="BC8" s="595"/>
+      <c r="BD8" s="595"/>
+      <c r="BE8" s="595"/>
+      <c r="BF8" s="177"/>
+      <c r="BG8" s="177"/>
+      <c r="BH8" s="177"/>
+      <c r="BI8" s="177"/>
+      <c r="BJ8" s="177"/>
+      <c r="BK8" s="177"/>
+      <c r="BL8" s="177"/>
+      <c r="BM8" s="179"/>
+      <c r="BN8" s="601"/>
+    </row>
+    <row r="9" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A9" s="839"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
+      <c r="U9" s="177"/>
+      <c r="V9" s="177"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="177"/>
+      <c r="Y9" s="177"/>
+      <c r="Z9" s="177"/>
+      <c r="AA9" s="177"/>
+      <c r="AB9" s="177"/>
+      <c r="AC9" s="177"/>
+      <c r="AD9" s="177"/>
+      <c r="AE9" s="177"/>
+      <c r="AF9" s="177"/>
+      <c r="AG9" s="177"/>
+      <c r="AH9" s="177"/>
+      <c r="AI9" s="177"/>
+      <c r="AJ9" s="177"/>
+      <c r="AK9" s="177"/>
+      <c r="AL9" s="177"/>
+      <c r="AM9" s="177"/>
+      <c r="AN9" s="177"/>
+      <c r="AO9" s="177"/>
+      <c r="AP9" s="595"/>
+      <c r="AQ9" s="595"/>
+      <c r="AR9" s="595"/>
+      <c r="AS9" s="595"/>
+      <c r="AT9" s="595"/>
+      <c r="AU9" s="595"/>
+      <c r="AV9" s="595"/>
+      <c r="AW9" s="846"/>
+      <c r="AX9" s="595"/>
+      <c r="AY9" s="595"/>
+      <c r="AZ9" s="595"/>
+      <c r="BA9" s="595"/>
+      <c r="BB9" s="595"/>
+      <c r="BC9" s="595"/>
+      <c r="BD9" s="595"/>
+      <c r="BE9" s="595"/>
+      <c r="BF9" s="177"/>
+      <c r="BG9" s="177"/>
+      <c r="BH9" s="177"/>
+      <c r="BI9" s="177"/>
+      <c r="BJ9" s="177"/>
+      <c r="BK9" s="177"/>
+      <c r="BL9" s="177"/>
+      <c r="BM9" s="179"/>
+      <c r="BN9" s="601"/>
+    </row>
+    <row r="10" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A10" s="839"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
+      <c r="U10" s="177"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
+      <c r="AD10" s="177"/>
+      <c r="AE10" s="177"/>
+      <c r="AF10" s="177"/>
+      <c r="AG10" s="177"/>
+      <c r="AH10" s="177"/>
+      <c r="AI10" s="177"/>
+      <c r="AJ10" s="177"/>
+      <c r="AK10" s="177"/>
+      <c r="AL10" s="177"/>
+      <c r="AM10" s="177"/>
+      <c r="AN10" s="177"/>
+      <c r="AO10" s="177"/>
+      <c r="AP10" s="595"/>
+      <c r="AQ10" s="595"/>
+      <c r="AR10" s="595"/>
+      <c r="AS10" s="595"/>
+      <c r="AT10" s="595"/>
+      <c r="AU10" s="595"/>
+      <c r="AV10" s="595"/>
+      <c r="AW10" s="846"/>
+      <c r="AX10" s="595"/>
+      <c r="AY10" s="595"/>
+      <c r="AZ10" s="595"/>
+      <c r="BA10" s="595"/>
+      <c r="BB10" s="595"/>
+      <c r="BC10" s="595"/>
+      <c r="BD10" s="595"/>
+      <c r="BE10" s="595"/>
+      <c r="BF10" s="177"/>
+      <c r="BG10" s="177"/>
+      <c r="BH10" s="177"/>
+      <c r="BI10" s="177"/>
+      <c r="BJ10" s="177"/>
+      <c r="BK10" s="177"/>
+      <c r="BL10" s="177"/>
+      <c r="BM10" s="179"/>
+      <c r="BN10" s="601"/>
+    </row>
+    <row r="11" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A11" s="839"/>
+      <c r="B11" s="177"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
+      <c r="U11" s="177"/>
+      <c r="V11" s="177"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="177"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="177"/>
+      <c r="AA11" s="177"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+      <c r="AD11" s="177"/>
+      <c r="AE11" s="177"/>
+      <c r="AF11" s="177"/>
+      <c r="AG11" s="177"/>
+      <c r="AH11" s="177"/>
+      <c r="AI11" s="177"/>
+      <c r="AJ11" s="177"/>
+      <c r="AK11" s="177"/>
+      <c r="AL11" s="177"/>
+      <c r="AM11" s="177"/>
+      <c r="AN11" s="177"/>
+      <c r="AO11" s="177"/>
+      <c r="AP11" s="595"/>
+      <c r="AQ11" s="595"/>
+      <c r="AR11" s="595"/>
+      <c r="AS11" s="595"/>
+      <c r="AT11" s="595"/>
+      <c r="AU11" s="595"/>
+      <c r="AV11" s="595"/>
+      <c r="AW11" s="846"/>
+      <c r="AX11" s="595"/>
+      <c r="AY11" s="595"/>
+      <c r="AZ11" s="595"/>
+      <c r="BA11" s="595"/>
+      <c r="BB11" s="595"/>
+      <c r="BC11" s="595"/>
+      <c r="BD11" s="595"/>
+      <c r="BE11" s="595"/>
+      <c r="BF11" s="177"/>
+      <c r="BG11" s="177"/>
+      <c r="BH11" s="177"/>
+      <c r="BI11" s="177"/>
+      <c r="BJ11" s="177"/>
+      <c r="BK11" s="177"/>
+      <c r="BL11" s="177"/>
+      <c r="BM11" s="179"/>
+      <c r="BN11" s="601"/>
+    </row>
+    <row r="12" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A12" s="839"/>
+      <c r="B12" s="177"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
+      <c r="U12" s="177"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="177"/>
+      <c r="Y12" s="177"/>
+      <c r="Z12" s="177"/>
+      <c r="AA12" s="177"/>
+      <c r="AB12" s="177"/>
+      <c r="AC12" s="177"/>
+      <c r="AD12" s="177"/>
+      <c r="AE12" s="177"/>
+      <c r="AF12" s="177"/>
+      <c r="AG12" s="177"/>
+      <c r="AH12" s="177"/>
+      <c r="AI12" s="177"/>
+      <c r="AJ12" s="177"/>
+      <c r="AK12" s="177"/>
+      <c r="AL12" s="177"/>
+      <c r="AM12" s="177"/>
+      <c r="AN12" s="177"/>
+      <c r="AO12" s="177"/>
+      <c r="AP12" s="595"/>
+      <c r="AQ12" s="595"/>
+      <c r="AR12" s="595"/>
+      <c r="AS12" s="595"/>
+      <c r="AT12" s="595"/>
+      <c r="AU12" s="595"/>
+      <c r="AV12" s="595"/>
+      <c r="AW12" s="846"/>
+      <c r="AX12" s="595"/>
+      <c r="AY12" s="595"/>
+      <c r="AZ12" s="595"/>
+      <c r="BA12" s="595"/>
+      <c r="BB12" s="595"/>
+      <c r="BC12" s="595"/>
+      <c r="BD12" s="595"/>
+      <c r="BE12" s="595"/>
+      <c r="BF12" s="177"/>
+      <c r="BG12" s="177"/>
+      <c r="BH12" s="177"/>
+      <c r="BI12" s="177"/>
+      <c r="BJ12" s="177"/>
+      <c r="BK12" s="177"/>
+      <c r="BL12" s="177"/>
+      <c r="BM12" s="179"/>
+      <c r="BN12" s="601"/>
+    </row>
+    <row r="13" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A13" s="839"/>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="177"/>
+      <c r="W13" s="177"/>
+      <c r="X13" s="177"/>
+      <c r="Y13" s="177"/>
+      <c r="Z13" s="177"/>
+      <c r="AA13" s="177"/>
+      <c r="AB13" s="177"/>
+      <c r="AC13" s="177"/>
+      <c r="AD13" s="177"/>
+      <c r="AE13" s="177"/>
+      <c r="AF13" s="177"/>
+      <c r="AG13" s="177"/>
+      <c r="AH13" s="177"/>
+      <c r="AI13" s="177"/>
+      <c r="AJ13" s="177"/>
+      <c r="AK13" s="177"/>
+      <c r="AL13" s="177"/>
+      <c r="AM13" s="177"/>
+      <c r="AN13" s="177"/>
+      <c r="AO13" s="177"/>
+      <c r="AP13" s="595"/>
+      <c r="AQ13" s="595"/>
+      <c r="AR13" s="595"/>
+      <c r="AS13" s="595"/>
+      <c r="AT13" s="595"/>
+      <c r="AU13" s="595"/>
+      <c r="AV13" s="595"/>
+      <c r="AW13" s="846"/>
+      <c r="AX13" s="595"/>
+      <c r="AY13" s="595"/>
+      <c r="AZ13" s="595"/>
+      <c r="BA13" s="595"/>
+      <c r="BB13" s="595"/>
+      <c r="BC13" s="595"/>
+      <c r="BD13" s="595"/>
+      <c r="BE13" s="595"/>
+      <c r="BF13" s="177"/>
+      <c r="BG13" s="177"/>
+      <c r="BH13" s="177"/>
+      <c r="BI13" s="177"/>
+      <c r="BJ13" s="177"/>
+      <c r="BK13" s="177"/>
+      <c r="BL13" s="177"/>
+      <c r="BM13" s="179"/>
+      <c r="BN13" s="601"/>
+    </row>
+    <row r="14" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A14" s="839"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="177"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="177"/>
+      <c r="AH14" s="177"/>
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="177"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="595"/>
+      <c r="AQ14" s="595"/>
+      <c r="AR14" s="595"/>
+      <c r="AS14" s="595"/>
+      <c r="AT14" s="595"/>
+      <c r="AU14" s="595"/>
+      <c r="AV14" s="595"/>
+      <c r="AW14" s="846"/>
+      <c r="AX14" s="595"/>
+      <c r="AY14" s="595"/>
+      <c r="AZ14" s="595"/>
+      <c r="BA14" s="595"/>
+      <c r="BB14" s="595"/>
+      <c r="BC14" s="595"/>
+      <c r="BD14" s="595"/>
+      <c r="BE14" s="595"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="177"/>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="177"/>
+      <c r="BK14" s="177"/>
+      <c r="BL14" s="177"/>
+      <c r="BM14" s="179"/>
+      <c r="BN14" s="601"/>
+    </row>
+    <row r="15" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A15" s="839"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
+      <c r="U15" s="177"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
+      <c r="Z15" s="177"/>
+      <c r="AA15" s="177"/>
+      <c r="AB15" s="177"/>
+      <c r="AC15" s="177"/>
+      <c r="AD15" s="177"/>
+      <c r="AE15" s="177"/>
+      <c r="AF15" s="177"/>
+      <c r="AG15" s="177"/>
+      <c r="AH15" s="177"/>
+      <c r="AI15" s="177"/>
+      <c r="AJ15" s="177"/>
+      <c r="AK15" s="177"/>
+      <c r="AL15" s="177"/>
+      <c r="AM15" s="177"/>
+      <c r="AN15" s="177"/>
+      <c r="AO15" s="177"/>
+      <c r="AP15" s="595"/>
+      <c r="AQ15" s="595"/>
+      <c r="AR15" s="595"/>
+      <c r="AS15" s="595"/>
+      <c r="AT15" s="595"/>
+      <c r="AU15" s="595"/>
+      <c r="AV15" s="595"/>
+      <c r="AW15" s="846"/>
+      <c r="AX15" s="595"/>
+      <c r="AY15" s="595"/>
+      <c r="AZ15" s="595"/>
+      <c r="BA15" s="595"/>
+      <c r="BB15" s="595"/>
+      <c r="BC15" s="595"/>
+      <c r="BD15" s="595"/>
+      <c r="BE15" s="595"/>
+      <c r="BF15" s="177"/>
+      <c r="BG15" s="177"/>
+      <c r="BH15" s="177"/>
+      <c r="BI15" s="177"/>
+      <c r="BJ15" s="177"/>
+      <c r="BK15" s="177"/>
+      <c r="BL15" s="177"/>
+      <c r="BM15" s="179"/>
+      <c r="BN15" s="601"/>
+    </row>
+    <row r="16" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A16" s="839"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
+      <c r="U16" s="177"/>
+      <c r="V16" s="177"/>
+      <c r="W16" s="177"/>
+      <c r="X16" s="177"/>
+      <c r="Y16" s="177"/>
+      <c r="Z16" s="177"/>
+      <c r="AA16" s="177"/>
+      <c r="AB16" s="177"/>
+      <c r="AC16" s="177"/>
+      <c r="AD16" s="177"/>
+      <c r="AE16" s="177"/>
+      <c r="AF16" s="177"/>
+      <c r="AG16" s="177"/>
+      <c r="AH16" s="177"/>
+      <c r="AI16" s="177"/>
+      <c r="AJ16" s="177"/>
+      <c r="AK16" s="177"/>
+      <c r="AL16" s="177"/>
+      <c r="AM16" s="177"/>
+      <c r="AN16" s="177"/>
+      <c r="AO16" s="177"/>
+      <c r="AP16" s="595"/>
+      <c r="AQ16" s="595"/>
+      <c r="AR16" s="595"/>
+      <c r="AS16" s="595"/>
+      <c r="AT16" s="595"/>
+      <c r="AU16" s="595"/>
+      <c r="AV16" s="595"/>
+      <c r="AW16" s="846"/>
+      <c r="AX16" s="595"/>
+      <c r="AY16" s="595"/>
+      <c r="AZ16" s="595"/>
+      <c r="BA16" s="595"/>
+      <c r="BB16" s="595"/>
+      <c r="BC16" s="595"/>
+      <c r="BD16" s="595"/>
+      <c r="BE16" s="595"/>
+      <c r="BF16" s="177"/>
+      <c r="BG16" s="177"/>
+      <c r="BH16" s="177"/>
+      <c r="BI16" s="177"/>
+      <c r="BJ16" s="177"/>
+      <c r="BK16" s="177"/>
+      <c r="BL16" s="177"/>
+      <c r="BM16" s="179"/>
+      <c r="BN16" s="601"/>
+    </row>
+    <row r="17" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A17" s="839"/>
+      <c r="B17" s="177"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="177"/>
+      <c r="V17" s="177"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="177"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
+      <c r="AD17" s="177"/>
+      <c r="AE17" s="177"/>
+      <c r="AF17" s="177"/>
+      <c r="AG17" s="177"/>
+      <c r="AH17" s="177"/>
+      <c r="AI17" s="177"/>
+      <c r="AJ17" s="177"/>
+      <c r="AK17" s="177"/>
+      <c r="AL17" s="177"/>
+      <c r="AM17" s="177"/>
+      <c r="AN17" s="177"/>
+      <c r="AO17" s="177"/>
+      <c r="AP17" s="595"/>
+      <c r="AQ17" s="595"/>
+      <c r="AR17" s="595"/>
+      <c r="AS17" s="595"/>
+      <c r="AT17" s="595"/>
+      <c r="AU17" s="595"/>
+      <c r="AV17" s="595"/>
+      <c r="AW17" s="846"/>
+      <c r="AX17" s="595"/>
+      <c r="AY17" s="595"/>
+      <c r="AZ17" s="595"/>
+      <c r="BA17" s="595"/>
+      <c r="BB17" s="595"/>
+      <c r="BC17" s="595"/>
+      <c r="BD17" s="595"/>
+      <c r="BE17" s="595"/>
+      <c r="BF17" s="177"/>
+      <c r="BG17" s="177"/>
+      <c r="BH17" s="177"/>
+      <c r="BI17" s="177"/>
+      <c r="BJ17" s="177"/>
+      <c r="BK17" s="177"/>
+      <c r="BL17" s="177"/>
+      <c r="BM17" s="179"/>
+      <c r="BN17" s="601"/>
+    </row>
+    <row r="18" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A18" s="839"/>
+      <c r="B18" s="177"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="177"/>
+      <c r="E18" s="177"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
+      <c r="AD18" s="177"/>
+      <c r="AE18" s="177"/>
+      <c r="AF18" s="177"/>
+      <c r="AG18" s="177"/>
+      <c r="AH18" s="177"/>
+      <c r="AI18" s="177"/>
+      <c r="AJ18" s="177"/>
+      <c r="AK18" s="177"/>
+      <c r="AL18" s="177"/>
+      <c r="AM18" s="177"/>
+      <c r="AN18" s="177"/>
+      <c r="AO18" s="177"/>
+      <c r="AP18" s="595"/>
+      <c r="AQ18" s="595"/>
+      <c r="AR18" s="595"/>
+      <c r="AS18" s="595"/>
+      <c r="AT18" s="595"/>
+      <c r="AU18" s="595"/>
+      <c r="AV18" s="595"/>
+      <c r="AW18" s="846"/>
+      <c r="AX18" s="595"/>
+      <c r="AY18" s="595"/>
+      <c r="AZ18" s="595"/>
+      <c r="BA18" s="595"/>
+      <c r="BB18" s="595"/>
+      <c r="BC18" s="595"/>
+      <c r="BD18" s="595"/>
+      <c r="BE18" s="595"/>
+      <c r="BF18" s="177"/>
+      <c r="BG18" s="177"/>
+      <c r="BH18" s="177"/>
+      <c r="BI18" s="177"/>
+      <c r="BJ18" s="177"/>
+      <c r="BK18" s="177"/>
+      <c r="BL18" s="177"/>
+      <c r="BM18" s="179"/>
+      <c r="BN18" s="601"/>
+    </row>
+    <row r="19" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A19" s="839"/>
+      <c r="B19" s="177"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="177"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
+      <c r="U19" s="177"/>
+      <c r="V19" s="177"/>
+      <c r="W19" s="177"/>
+      <c r="X19" s="177"/>
+      <c r="Y19" s="177"/>
+      <c r="Z19" s="177"/>
+      <c r="AA19" s="177"/>
+      <c r="AB19" s="177"/>
+      <c r="AC19" s="177"/>
+      <c r="AD19" s="177"/>
+      <c r="AE19" s="177"/>
+      <c r="AF19" s="177"/>
+      <c r="AG19" s="177"/>
+      <c r="AH19" s="177"/>
+      <c r="AI19" s="177"/>
+      <c r="AJ19" s="177"/>
+      <c r="AK19" s="177"/>
+      <c r="AL19" s="177"/>
+      <c r="AM19" s="177"/>
+      <c r="AN19" s="177"/>
+      <c r="AO19" s="177"/>
+      <c r="AP19" s="595"/>
+      <c r="AQ19" s="595"/>
+      <c r="AR19" s="595"/>
+      <c r="AS19" s="595"/>
+      <c r="AT19" s="595"/>
+      <c r="AU19" s="595"/>
+      <c r="AV19" s="595"/>
+      <c r="AW19" s="846"/>
+      <c r="AX19" s="595"/>
+      <c r="AY19" s="595"/>
+      <c r="AZ19" s="595"/>
+      <c r="BA19" s="595"/>
+      <c r="BB19" s="595"/>
+      <c r="BC19" s="595"/>
+      <c r="BD19" s="595"/>
+      <c r="BE19" s="595"/>
+      <c r="BF19" s="177"/>
+      <c r="BG19" s="177"/>
+      <c r="BH19" s="177"/>
+      <c r="BI19" s="177"/>
+      <c r="BJ19" s="177"/>
+      <c r="BK19" s="177"/>
+      <c r="BL19" s="177"/>
+      <c r="BM19" s="179"/>
+      <c r="BN19" s="601"/>
+    </row>
+    <row r="20" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A20" s="839"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
+      <c r="U20" s="177"/>
+      <c r="V20" s="177"/>
+      <c r="W20" s="177"/>
+      <c r="X20" s="177"/>
+      <c r="Y20" s="177"/>
+      <c r="Z20" s="177"/>
+      <c r="AA20" s="177"/>
+      <c r="AB20" s="177"/>
+      <c r="AC20" s="177"/>
+      <c r="AD20" s="177"/>
+      <c r="AE20" s="177"/>
+      <c r="AF20" s="177"/>
+      <c r="AG20" s="177"/>
+      <c r="AH20" s="177"/>
+      <c r="AI20" s="177"/>
+      <c r="AJ20" s="177"/>
+      <c r="AK20" s="177"/>
+      <c r="AL20" s="177"/>
+      <c r="AM20" s="177"/>
+      <c r="AN20" s="177"/>
+      <c r="AO20" s="177"/>
+      <c r="AP20" s="595"/>
+      <c r="AQ20" s="595"/>
+      <c r="AR20" s="595"/>
+      <c r="AS20" s="595"/>
+      <c r="AT20" s="595"/>
+      <c r="AU20" s="595"/>
+      <c r="AV20" s="595"/>
+      <c r="AW20" s="846"/>
+      <c r="AX20" s="595"/>
+      <c r="AY20" s="595"/>
+      <c r="AZ20" s="595"/>
+      <c r="BA20" s="595"/>
+      <c r="BB20" s="595"/>
+      <c r="BC20" s="595"/>
+      <c r="BD20" s="595"/>
+      <c r="BE20" s="595"/>
+      <c r="BF20" s="177"/>
+      <c r="BG20" s="177"/>
+      <c r="BH20" s="177"/>
+      <c r="BI20" s="177"/>
+      <c r="BJ20" s="177"/>
+      <c r="BK20" s="177"/>
+      <c r="BL20" s="177"/>
+      <c r="BM20" s="179"/>
+      <c r="BN20" s="601"/>
+    </row>
+    <row r="21" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A21" s="839"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="177"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="177"/>
+      <c r="Y21" s="177"/>
+      <c r="Z21" s="177"/>
+      <c r="AA21" s="177"/>
+      <c r="AB21" s="177"/>
+      <c r="AC21" s="177"/>
+      <c r="AD21" s="177"/>
+      <c r="AE21" s="177"/>
+      <c r="AF21" s="177"/>
+      <c r="AG21" s="177"/>
+      <c r="AH21" s="177"/>
+      <c r="AI21" s="177"/>
+      <c r="AJ21" s="177"/>
+      <c r="AK21" s="177"/>
+      <c r="AL21" s="177"/>
+      <c r="AM21" s="177"/>
+      <c r="AN21" s="177"/>
+      <c r="AO21" s="177"/>
+      <c r="AP21" s="595"/>
+      <c r="AQ21" s="595"/>
+      <c r="AR21" s="595"/>
+      <c r="AS21" s="595"/>
+      <c r="AT21" s="595"/>
+      <c r="AU21" s="595"/>
+      <c r="AV21" s="595"/>
+      <c r="AW21" s="846"/>
+      <c r="AX21" s="595"/>
+      <c r="AY21" s="595"/>
+      <c r="AZ21" s="595"/>
+      <c r="BA21" s="595"/>
+      <c r="BB21" s="595"/>
+      <c r="BC21" s="595"/>
+      <c r="BD21" s="595"/>
+      <c r="BE21" s="595"/>
+      <c r="BF21" s="177"/>
+      <c r="BG21" s="177"/>
+      <c r="BH21" s="177"/>
+      <c r="BI21" s="177"/>
+      <c r="BJ21" s="177"/>
+      <c r="BK21" s="177"/>
+      <c r="BL21" s="177"/>
+      <c r="BM21" s="179"/>
+      <c r="BN21" s="601"/>
+    </row>
+    <row r="22" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A22" s="839"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
+      <c r="U22" s="177"/>
+      <c r="V22" s="177"/>
+      <c r="W22" s="177"/>
+      <c r="X22" s="177"/>
+      <c r="Y22" s="177"/>
+      <c r="Z22" s="177"/>
+      <c r="AA22" s="177"/>
+      <c r="AB22" s="177"/>
+      <c r="AC22" s="177"/>
+      <c r="AD22" s="177"/>
+      <c r="AE22" s="177"/>
+      <c r="AF22" s="177"/>
+      <c r="AG22" s="177"/>
+      <c r="AH22" s="177"/>
+      <c r="AI22" s="177"/>
+      <c r="AJ22" s="177"/>
+      <c r="AK22" s="177"/>
+      <c r="AL22" s="177"/>
+      <c r="AM22" s="177"/>
+      <c r="AN22" s="177"/>
+      <c r="AO22" s="177"/>
+      <c r="AP22" s="595"/>
+      <c r="AQ22" s="595"/>
+      <c r="AR22" s="595"/>
+      <c r="AS22" s="595"/>
+      <c r="AT22" s="595"/>
+      <c r="AU22" s="595"/>
+      <c r="AV22" s="595"/>
+      <c r="AW22" s="846"/>
+      <c r="AX22" s="595"/>
+      <c r="AY22" s="595"/>
+      <c r="AZ22" s="595"/>
+      <c r="BA22" s="595"/>
+      <c r="BB22" s="595"/>
+      <c r="BC22" s="595"/>
+      <c r="BD22" s="595"/>
+      <c r="BE22" s="595"/>
+      <c r="BF22" s="177"/>
+      <c r="BG22" s="177"/>
+      <c r="BH22" s="177"/>
+      <c r="BI22" s="177"/>
+      <c r="BJ22" s="177"/>
+      <c r="BK22" s="177"/>
+      <c r="BL22" s="177"/>
+      <c r="BM22" s="179"/>
+      <c r="BN22" s="601"/>
+    </row>
+    <row r="23" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A23" s="839"/>
+      <c r="B23" s="177"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
+      <c r="U23" s="177"/>
+      <c r="V23" s="177"/>
+      <c r="W23" s="177"/>
+      <c r="X23" s="177"/>
+      <c r="Y23" s="177"/>
+      <c r="Z23" s="177"/>
+      <c r="AA23" s="177"/>
+      <c r="AB23" s="177"/>
+      <c r="AC23" s="177"/>
+      <c r="AD23" s="177"/>
+      <c r="AE23" s="177"/>
+      <c r="AF23" s="177"/>
+      <c r="AG23" s="177"/>
+      <c r="AH23" s="177"/>
+      <c r="AI23" s="177"/>
+      <c r="AJ23" s="177"/>
+      <c r="AK23" s="177"/>
+      <c r="AL23" s="177"/>
+      <c r="AM23" s="177"/>
+      <c r="AN23" s="177"/>
+      <c r="AO23" s="177"/>
+      <c r="AP23" s="595"/>
+      <c r="AQ23" s="595"/>
+      <c r="AR23" s="595"/>
+      <c r="AS23" s="595"/>
+      <c r="AT23" s="595"/>
+      <c r="AU23" s="595"/>
+      <c r="AV23" s="595"/>
+      <c r="AW23" s="846"/>
+      <c r="AX23" s="595"/>
+      <c r="AY23" s="595"/>
+      <c r="AZ23" s="595"/>
+      <c r="BA23" s="595"/>
+      <c r="BB23" s="595"/>
+      <c r="BC23" s="595"/>
+      <c r="BD23" s="595"/>
+      <c r="BE23" s="595"/>
+      <c r="BF23" s="177"/>
+      <c r="BG23" s="177"/>
+      <c r="BH23" s="177"/>
+      <c r="BI23" s="177"/>
+      <c r="BJ23" s="177"/>
+      <c r="BK23" s="177"/>
+      <c r="BL23" s="177"/>
+      <c r="BM23" s="179"/>
+      <c r="BN23" s="601"/>
+    </row>
+    <row r="24" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A24" s="839"/>
+      <c r="B24" s="177"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
+      <c r="U24" s="177"/>
+      <c r="V24" s="177"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="177"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
+      <c r="AD24" s="177"/>
+      <c r="AE24" s="177"/>
+      <c r="AF24" s="177"/>
+      <c r="AG24" s="177"/>
+      <c r="AH24" s="177"/>
+      <c r="AI24" s="177"/>
+      <c r="AJ24" s="177"/>
+      <c r="AK24" s="177"/>
+      <c r="AL24" s="177"/>
+      <c r="AM24" s="177"/>
+      <c r="AN24" s="177"/>
+      <c r="AO24" s="177"/>
+      <c r="AP24" s="595"/>
+      <c r="AQ24" s="595"/>
+      <c r="AR24" s="595"/>
+      <c r="AS24" s="595"/>
+      <c r="AT24" s="595"/>
+      <c r="AU24" s="595"/>
+      <c r="AV24" s="595"/>
+      <c r="AW24" s="846"/>
+      <c r="AX24" s="595"/>
+      <c r="AY24" s="595"/>
+      <c r="AZ24" s="595"/>
+      <c r="BA24" s="595"/>
+      <c r="BB24" s="595"/>
+      <c r="BC24" s="595"/>
+      <c r="BD24" s="595"/>
+      <c r="BE24" s="595"/>
+      <c r="BF24" s="177"/>
+      <c r="BG24" s="177"/>
+      <c r="BH24" s="177"/>
+      <c r="BI24" s="177"/>
+      <c r="BJ24" s="177"/>
+      <c r="BK24" s="177"/>
+      <c r="BL24" s="177"/>
+      <c r="BM24" s="179"/>
+      <c r="BN24" s="601"/>
+    </row>
+    <row r="25" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A25" s="839"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+      <c r="U25" s="177"/>
+      <c r="V25" s="177"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="177"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
+      <c r="AD25" s="177"/>
+      <c r="AE25" s="177"/>
+      <c r="AF25" s="177"/>
+      <c r="AG25" s="177"/>
+      <c r="AH25" s="177"/>
+      <c r="AI25" s="177"/>
+      <c r="AJ25" s="177"/>
+      <c r="AK25" s="177"/>
+      <c r="AL25" s="177"/>
+      <c r="AM25" s="177"/>
+      <c r="AN25" s="177"/>
+      <c r="AO25" s="177"/>
+      <c r="AP25" s="595"/>
+      <c r="AQ25" s="595"/>
+      <c r="AR25" s="595"/>
+      <c r="AS25" s="595"/>
+      <c r="AT25" s="595"/>
+      <c r="AU25" s="595"/>
+      <c r="AV25" s="595"/>
+      <c r="AW25" s="846"/>
+      <c r="AX25" s="595"/>
+      <c r="AY25" s="595"/>
+      <c r="AZ25" s="595"/>
+      <c r="BA25" s="595"/>
+      <c r="BB25" s="595"/>
+      <c r="BC25" s="595"/>
+      <c r="BD25" s="595"/>
+      <c r="BE25" s="595"/>
+      <c r="BF25" s="177"/>
+      <c r="BG25" s="177"/>
+      <c r="BH25" s="177"/>
+      <c r="BI25" s="177"/>
+      <c r="BJ25" s="177"/>
+      <c r="BK25" s="177"/>
+      <c r="BL25" s="177"/>
+      <c r="BM25" s="179"/>
+      <c r="BN25" s="601"/>
+    </row>
+    <row r="26" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A26" s="839"/>
+      <c r="B26" s="177"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="177"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
+      <c r="U26" s="177"/>
+      <c r="V26" s="177"/>
+      <c r="W26" s="177"/>
+      <c r="X26" s="177"/>
+      <c r="Y26" s="177"/>
+      <c r="Z26" s="177"/>
+      <c r="AA26" s="177"/>
+      <c r="AB26" s="177"/>
+      <c r="AC26" s="177"/>
+      <c r="AD26" s="177"/>
+      <c r="AE26" s="177"/>
+      <c r="AF26" s="177"/>
+      <c r="AG26" s="177"/>
+      <c r="AH26" s="177"/>
+      <c r="AI26" s="177"/>
+      <c r="AJ26" s="177"/>
+      <c r="AK26" s="177"/>
+      <c r="AL26" s="177"/>
+      <c r="AM26" s="177"/>
+      <c r="AN26" s="177"/>
+      <c r="AO26" s="177"/>
+      <c r="AP26" s="595"/>
+      <c r="AQ26" s="595"/>
+      <c r="AR26" s="595"/>
+      <c r="AS26" s="595"/>
+      <c r="AT26" s="595"/>
+      <c r="AU26" s="595"/>
+      <c r="AV26" s="595"/>
+      <c r="AW26" s="846"/>
+      <c r="AX26" s="595"/>
+      <c r="AY26" s="595"/>
+      <c r="AZ26" s="595"/>
+      <c r="BA26" s="595"/>
+      <c r="BB26" s="595"/>
+      <c r="BC26" s="595"/>
+      <c r="BD26" s="595"/>
+      <c r="BE26" s="595"/>
+      <c r="BF26" s="177"/>
+      <c r="BG26" s="177"/>
+      <c r="BH26" s="177"/>
+      <c r="BI26" s="177"/>
+      <c r="BJ26" s="177"/>
+      <c r="BK26" s="177"/>
+      <c r="BL26" s="177"/>
+      <c r="BM26" s="179"/>
+      <c r="BN26" s="601"/>
+    </row>
+    <row r="27" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A27" s="839"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="177"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
+      <c r="U27" s="177"/>
+      <c r="V27" s="177"/>
+      <c r="W27" s="177"/>
+      <c r="X27" s="177"/>
+      <c r="Y27" s="177"/>
+      <c r="Z27" s="177"/>
+      <c r="AA27" s="177"/>
+      <c r="AB27" s="177"/>
+      <c r="AC27" s="177"/>
+      <c r="AD27" s="177"/>
+      <c r="AE27" s="177"/>
+      <c r="AF27" s="177"/>
+      <c r="AG27" s="177"/>
+      <c r="AH27" s="177"/>
+      <c r="AI27" s="177"/>
+      <c r="AJ27" s="177"/>
+      <c r="AK27" s="177"/>
+      <c r="AL27" s="177"/>
+      <c r="AM27" s="177"/>
+      <c r="AN27" s="177"/>
+      <c r="AO27" s="177"/>
+      <c r="AP27" s="595"/>
+      <c r="AQ27" s="595"/>
+      <c r="AR27" s="595"/>
+      <c r="AS27" s="595"/>
+      <c r="AT27" s="595"/>
+      <c r="AU27" s="595"/>
+      <c r="AV27" s="595"/>
+      <c r="AW27" s="846"/>
+      <c r="AX27" s="595"/>
+      <c r="AY27" s="595"/>
+      <c r="AZ27" s="595"/>
+      <c r="BA27" s="595"/>
+      <c r="BB27" s="595"/>
+      <c r="BC27" s="595"/>
+      <c r="BD27" s="595"/>
+      <c r="BE27" s="595"/>
+      <c r="BF27" s="177"/>
+      <c r="BG27" s="177"/>
+      <c r="BH27" s="177"/>
+      <c r="BI27" s="177"/>
+      <c r="BJ27" s="177"/>
+      <c r="BK27" s="177"/>
+      <c r="BL27" s="177"/>
+      <c r="BM27" s="179"/>
+      <c r="BN27" s="601"/>
+    </row>
+    <row r="28" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A28" s="839"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
+      <c r="U28" s="177"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
+      <c r="X28" s="177"/>
+      <c r="Y28" s="177"/>
+      <c r="Z28" s="177"/>
+      <c r="AA28" s="177"/>
+      <c r="AB28" s="177"/>
+      <c r="AC28" s="177"/>
+      <c r="AD28" s="177"/>
+      <c r="AE28" s="177"/>
+      <c r="AF28" s="177"/>
+      <c r="AG28" s="177"/>
+      <c r="AH28" s="177"/>
+      <c r="AI28" s="177"/>
+      <c r="AJ28" s="177"/>
+      <c r="AK28" s="177"/>
+      <c r="AL28" s="177"/>
+      <c r="AM28" s="177"/>
+      <c r="AN28" s="177"/>
+      <c r="AO28" s="177"/>
+      <c r="AP28" s="595"/>
+      <c r="AQ28" s="595"/>
+      <c r="AR28" s="595"/>
+      <c r="AS28" s="595"/>
+      <c r="AT28" s="595"/>
+      <c r="AU28" s="595"/>
+      <c r="AV28" s="595"/>
+      <c r="AW28" s="846"/>
+      <c r="AX28" s="595"/>
+      <c r="AY28" s="595"/>
+      <c r="AZ28" s="595"/>
+      <c r="BA28" s="595"/>
+      <c r="BB28" s="595"/>
+      <c r="BC28" s="595"/>
+      <c r="BD28" s="595"/>
+      <c r="BE28" s="595"/>
+      <c r="BF28" s="177"/>
+      <c r="BG28" s="177"/>
+      <c r="BH28" s="177"/>
+      <c r="BI28" s="177"/>
+      <c r="BJ28" s="177"/>
+      <c r="BK28" s="177"/>
+      <c r="BL28" s="177"/>
+      <c r="BM28" s="179"/>
+      <c r="BN28" s="601"/>
+    </row>
+    <row r="29" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A29" s="839"/>
+      <c r="B29" s="177"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
+      <c r="U29" s="177"/>
+      <c r="V29" s="177"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="177"/>
+      <c r="Y29" s="177"/>
+      <c r="Z29" s="177"/>
+      <c r="AA29" s="177"/>
+      <c r="AB29" s="177"/>
+      <c r="AC29" s="177"/>
+      <c r="AD29" s="177"/>
+      <c r="AE29" s="177"/>
+      <c r="AF29" s="177"/>
+      <c r="AG29" s="177"/>
+      <c r="AH29" s="177"/>
+      <c r="AI29" s="177"/>
+      <c r="AJ29" s="177"/>
+      <c r="AK29" s="177"/>
+      <c r="AL29" s="177"/>
+      <c r="AM29" s="177"/>
+      <c r="AN29" s="177"/>
+      <c r="AO29" s="177"/>
+      <c r="AP29" s="595"/>
+      <c r="AQ29" s="595"/>
+      <c r="AR29" s="595"/>
+      <c r="AS29" s="595"/>
+      <c r="AT29" s="595"/>
+      <c r="AU29" s="595"/>
+      <c r="AV29" s="595"/>
+      <c r="AW29" s="846"/>
+      <c r="AX29" s="595"/>
+      <c r="AY29" s="595"/>
+      <c r="AZ29" s="595"/>
+      <c r="BA29" s="595"/>
+      <c r="BB29" s="595"/>
+      <c r="BC29" s="595"/>
+      <c r="BD29" s="595"/>
+      <c r="BE29" s="595"/>
+      <c r="BF29" s="177"/>
+      <c r="BG29" s="177"/>
+      <c r="BH29" s="177"/>
+      <c r="BI29" s="177"/>
+      <c r="BJ29" s="177"/>
+      <c r="BK29" s="177"/>
+      <c r="BL29" s="177"/>
+      <c r="BM29" s="179"/>
+      <c r="BN29" s="601"/>
+    </row>
+    <row r="30" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A30" s="839"/>
+      <c r="B30" s="177"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
+      <c r="U30" s="177"/>
+      <c r="V30" s="177"/>
+      <c r="W30" s="177"/>
+      <c r="X30" s="177"/>
+      <c r="Y30" s="177"/>
+      <c r="Z30" s="177"/>
+      <c r="AA30" s="177"/>
+      <c r="AB30" s="177"/>
+      <c r="AC30" s="177"/>
+      <c r="AD30" s="177"/>
+      <c r="AE30" s="177"/>
+      <c r="AF30" s="177"/>
+      <c r="AG30" s="177"/>
+      <c r="AH30" s="177"/>
+      <c r="AI30" s="177"/>
+      <c r="AJ30" s="177"/>
+      <c r="AK30" s="177"/>
+      <c r="AL30" s="177"/>
+      <c r="AM30" s="177"/>
+      <c r="AN30" s="177"/>
+      <c r="AO30" s="177"/>
+      <c r="AP30" s="595"/>
+      <c r="AQ30" s="595"/>
+      <c r="AR30" s="595"/>
+      <c r="AS30" s="595"/>
+      <c r="AT30" s="595"/>
+      <c r="AU30" s="595"/>
+      <c r="AV30" s="595"/>
+      <c r="AW30" s="846"/>
+      <c r="AX30" s="595"/>
+      <c r="AY30" s="595"/>
+      <c r="AZ30" s="595"/>
+      <c r="BA30" s="595"/>
+      <c r="BB30" s="595"/>
+      <c r="BC30" s="595"/>
+      <c r="BD30" s="595"/>
+      <c r="BE30" s="177"/>
+      <c r="BF30" s="177"/>
+      <c r="BG30" s="177"/>
+      <c r="BH30" s="177"/>
+      <c r="BI30" s="177"/>
+      <c r="BJ30" s="177"/>
+      <c r="BK30" s="177"/>
+      <c r="BL30" s="177"/>
+      <c r="BM30" s="179"/>
+      <c r="BN30" s="601"/>
+    </row>
+    <row r="31" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A31" s="839"/>
+      <c r="B31" s="177"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
+      <c r="U31" s="177"/>
+      <c r="V31" s="177"/>
+      <c r="W31" s="177"/>
+      <c r="X31" s="177"/>
+      <c r="Y31" s="177"/>
+      <c r="Z31" s="177"/>
+      <c r="AA31" s="177"/>
+      <c r="AB31" s="177"/>
+      <c r="AC31" s="177"/>
+      <c r="AD31" s="177"/>
+      <c r="AE31" s="177"/>
+      <c r="AF31" s="177"/>
+      <c r="AG31" s="177"/>
+      <c r="AH31" s="177"/>
+      <c r="AI31" s="177"/>
+      <c r="AJ31" s="177"/>
+      <c r="AK31" s="177"/>
+      <c r="AL31" s="177"/>
+      <c r="AM31" s="177"/>
+      <c r="AN31" s="177"/>
+      <c r="AO31" s="177"/>
+      <c r="AP31" s="595"/>
+      <c r="AQ31" s="595"/>
+      <c r="AR31" s="595"/>
+      <c r="AS31" s="595"/>
+      <c r="AT31" s="595"/>
+      <c r="AU31" s="595"/>
+      <c r="AV31" s="595"/>
+      <c r="AW31" s="846"/>
+      <c r="AX31" s="595"/>
+      <c r="AY31" s="595"/>
+      <c r="AZ31" s="595"/>
+      <c r="BA31" s="595"/>
+      <c r="BB31" s="595"/>
+      <c r="BC31" s="595"/>
+      <c r="BD31" s="595"/>
+      <c r="BE31" s="177"/>
+      <c r="BF31" s="177"/>
+      <c r="BG31" s="177"/>
+      <c r="BH31" s="177"/>
+      <c r="BI31" s="177"/>
+      <c r="BJ31" s="177"/>
+      <c r="BK31" s="177"/>
+      <c r="BL31" s="177"/>
+      <c r="BM31" s="179"/>
+      <c r="BN31" s="601"/>
+    </row>
+    <row r="32" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A32" s="839"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
+      <c r="U32" s="177"/>
+      <c r="V32" s="177"/>
+      <c r="W32" s="177"/>
+      <c r="X32" s="177"/>
+      <c r="Y32" s="177"/>
+      <c r="Z32" s="177"/>
+      <c r="AA32" s="177"/>
+      <c r="AB32" s="177"/>
+      <c r="AC32" s="177"/>
+      <c r="AD32" s="177"/>
+      <c r="AE32" s="177"/>
+      <c r="AF32" s="177"/>
+      <c r="AG32" s="177"/>
+      <c r="AH32" s="177"/>
+      <c r="AI32" s="177"/>
+      <c r="AJ32" s="177"/>
+      <c r="AK32" s="177"/>
+      <c r="AL32" s="177"/>
+      <c r="AM32" s="177"/>
+      <c r="AN32" s="177"/>
+      <c r="AO32" s="177"/>
+      <c r="AP32" s="595"/>
+      <c r="AQ32" s="595"/>
+      <c r="AR32" s="595"/>
+      <c r="AS32" s="595"/>
+      <c r="AT32" s="595"/>
+      <c r="AU32" s="595"/>
+      <c r="AV32" s="595"/>
+      <c r="AW32" s="846"/>
+      <c r="AX32" s="595"/>
+      <c r="AY32" s="595"/>
+      <c r="AZ32" s="595"/>
+      <c r="BA32" s="595"/>
+      <c r="BB32" s="595"/>
+      <c r="BC32" s="595"/>
+      <c r="BD32" s="595"/>
+      <c r="BE32" s="177"/>
+      <c r="BF32" s="177"/>
+      <c r="BG32" s="177"/>
+      <c r="BH32" s="177"/>
+      <c r="BI32" s="177"/>
+      <c r="BJ32" s="177"/>
+      <c r="BK32" s="177"/>
+      <c r="BL32" s="177"/>
+      <c r="BM32" s="179"/>
+      <c r="BN32" s="601"/>
+    </row>
+    <row r="33" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A33" s="839"/>
+      <c r="B33" s="177"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
+      <c r="U33" s="177"/>
+      <c r="V33" s="177"/>
+      <c r="W33" s="177"/>
+      <c r="X33" s="177"/>
+      <c r="Y33" s="177"/>
+      <c r="Z33" s="177"/>
+      <c r="AA33" s="177"/>
+      <c r="AB33" s="177"/>
+      <c r="AC33" s="177"/>
+      <c r="AD33" s="177"/>
+      <c r="AE33" s="177"/>
+      <c r="AF33" s="177"/>
+      <c r="AG33" s="177"/>
+      <c r="AH33" s="177"/>
+      <c r="AI33" s="177"/>
+      <c r="AJ33" s="177"/>
+      <c r="AK33" s="177"/>
+      <c r="AL33" s="177"/>
+      <c r="AM33" s="177"/>
+      <c r="AN33" s="177"/>
+      <c r="AO33" s="177"/>
+      <c r="AP33" s="595"/>
+      <c r="AQ33" s="595"/>
+      <c r="AR33" s="595"/>
+      <c r="AS33" s="595"/>
+      <c r="AT33" s="595"/>
+      <c r="AU33" s="595"/>
+      <c r="AV33" s="595"/>
+      <c r="AW33" s="846"/>
+      <c r="AX33" s="595"/>
+      <c r="AY33" s="595"/>
+      <c r="AZ33" s="595"/>
+      <c r="BA33" s="595"/>
+      <c r="BB33" s="595"/>
+      <c r="BC33" s="595"/>
+      <c r="BD33" s="595"/>
+      <c r="BE33" s="595"/>
+      <c r="BF33" s="177"/>
+      <c r="BG33" s="177"/>
+      <c r="BH33" s="177"/>
+      <c r="BI33" s="177"/>
+      <c r="BJ33" s="177"/>
+      <c r="BK33" s="177"/>
+      <c r="BL33" s="177"/>
+      <c r="BM33" s="179"/>
+      <c r="BN33" s="601"/>
+    </row>
+    <row r="34" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A34" s="839"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="177"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
+      <c r="U34" s="177"/>
+      <c r="V34" s="177"/>
+      <c r="W34" s="177"/>
+      <c r="X34" s="177"/>
+      <c r="Y34" s="177"/>
+      <c r="Z34" s="177"/>
+      <c r="AA34" s="177"/>
+      <c r="AB34" s="177"/>
+      <c r="AC34" s="177"/>
+      <c r="AD34" s="177"/>
+      <c r="AE34" s="177"/>
+      <c r="AF34" s="177"/>
+      <c r="AG34" s="177"/>
+      <c r="AH34" s="177"/>
+      <c r="AI34" s="177"/>
+      <c r="AJ34" s="177"/>
+      <c r="AK34" s="177"/>
+      <c r="AL34" s="177"/>
+      <c r="AM34" s="177"/>
+      <c r="AN34" s="177"/>
+      <c r="AO34" s="177"/>
+      <c r="AP34" s="595"/>
+      <c r="AQ34" s="595"/>
+      <c r="AR34" s="595"/>
+      <c r="AS34" s="595"/>
+      <c r="AT34" s="595"/>
+      <c r="AU34" s="595"/>
+      <c r="AV34" s="595"/>
+      <c r="AW34" s="846"/>
+      <c r="AX34" s="595"/>
+      <c r="AY34" s="595"/>
+      <c r="AZ34" s="595"/>
+      <c r="BA34" s="595"/>
+      <c r="BB34" s="595"/>
+      <c r="BC34" s="595"/>
+      <c r="BD34" s="595"/>
+      <c r="BE34" s="177"/>
+      <c r="BF34" s="177"/>
+      <c r="BG34" s="177"/>
+      <c r="BH34" s="177"/>
+      <c r="BI34" s="177"/>
+      <c r="BJ34" s="177"/>
+      <c r="BK34" s="177"/>
+      <c r="BL34" s="177"/>
+      <c r="BM34" s="179"/>
+      <c r="BN34" s="601"/>
+    </row>
+    <row r="35" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A35" s="839"/>
+      <c r="B35" s="177"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="177"/>
+      <c r="E35" s="177"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="177"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="177"/>
+      <c r="M35" s="177"/>
+      <c r="N35" s="177"/>
+      <c r="O35" s="177"/>
+      <c r="P35" s="177"/>
+      <c r="Q35" s="177"/>
+      <c r="R35" s="177"/>
+      <c r="S35" s="177"/>
+      <c r="T35" s="177"/>
+      <c r="U35" s="177"/>
+      <c r="V35" s="177"/>
+      <c r="W35" s="177"/>
+      <c r="X35" s="177"/>
+      <c r="Y35" s="177"/>
+      <c r="Z35" s="177"/>
+      <c r="AA35" s="177"/>
+      <c r="AB35" s="177"/>
+      <c r="AC35" s="177"/>
+      <c r="AD35" s="177"/>
+      <c r="AE35" s="177"/>
+      <c r="AF35" s="177"/>
+      <c r="AG35" s="177"/>
+      <c r="AH35" s="177"/>
+      <c r="AI35" s="177"/>
+      <c r="AJ35" s="177"/>
+      <c r="AK35" s="177"/>
+      <c r="AL35" s="177"/>
+      <c r="AM35" s="177"/>
+      <c r="AN35" s="177"/>
+      <c r="AO35" s="177"/>
+      <c r="AP35" s="595"/>
+      <c r="AQ35" s="595"/>
+      <c r="AR35" s="595"/>
+      <c r="AS35" s="595"/>
+      <c r="AT35" s="595"/>
+      <c r="AU35" s="595"/>
+      <c r="AV35" s="595"/>
+      <c r="AW35" s="846"/>
+      <c r="AX35" s="595"/>
+      <c r="AY35" s="595"/>
+      <c r="AZ35" s="595"/>
+      <c r="BA35" s="595"/>
+      <c r="BB35" s="595"/>
+      <c r="BC35" s="595"/>
+      <c r="BD35" s="595"/>
+      <c r="BE35" s="177"/>
+      <c r="BF35" s="177"/>
+      <c r="BG35" s="177"/>
+      <c r="BH35" s="177"/>
+      <c r="BI35" s="177"/>
+      <c r="BJ35" s="177"/>
+      <c r="BK35" s="177"/>
+      <c r="BL35" s="177"/>
+      <c r="BM35" s="179"/>
+      <c r="BN35" s="601"/>
+    </row>
+    <row r="36" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A36" s="839"/>
+      <c r="B36" s="177"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="177"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="177"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="177"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="177"/>
+      <c r="M36" s="177"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="177"/>
+      <c r="P36" s="177"/>
+      <c r="Q36" s="177"/>
+      <c r="R36" s="177"/>
+      <c r="S36" s="177"/>
+      <c r="T36" s="177"/>
+      <c r="U36" s="177"/>
+      <c r="V36" s="177"/>
+      <c r="W36" s="177"/>
+      <c r="X36" s="177"/>
+      <c r="Y36" s="177"/>
+      <c r="Z36" s="177"/>
+      <c r="AA36" s="177"/>
+      <c r="AB36" s="177"/>
+      <c r="AC36" s="177"/>
+      <c r="AD36" s="177"/>
+      <c r="AE36" s="177"/>
+      <c r="AF36" s="177"/>
+      <c r="AG36" s="177"/>
+      <c r="AH36" s="177"/>
+      <c r="AI36" s="177"/>
+      <c r="AJ36" s="177"/>
+      <c r="AK36" s="177"/>
+      <c r="AL36" s="177"/>
+      <c r="AM36" s="177"/>
+      <c r="AN36" s="177"/>
+      <c r="AO36" s="177"/>
+      <c r="AP36" s="595"/>
+      <c r="AQ36" s="595"/>
+      <c r="AR36" s="595"/>
+      <c r="AS36" s="595"/>
+      <c r="AT36" s="595"/>
+      <c r="AU36" s="595"/>
+      <c r="AV36" s="595"/>
+      <c r="AW36" s="846"/>
+      <c r="AX36" s="595"/>
+      <c r="AY36" s="595"/>
+      <c r="AZ36" s="595"/>
+      <c r="BA36" s="595"/>
+      <c r="BB36" s="595"/>
+      <c r="BC36" s="595"/>
+      <c r="BD36" s="595"/>
+      <c r="BE36" s="177"/>
+      <c r="BF36" s="177"/>
+      <c r="BG36" s="177"/>
+      <c r="BH36" s="177"/>
+      <c r="BI36" s="177"/>
+      <c r="BJ36" s="177"/>
+      <c r="BK36" s="177"/>
+      <c r="BL36" s="177"/>
+      <c r="BM36" s="179"/>
+      <c r="BN36" s="601"/>
+    </row>
+    <row r="37" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A37" s="839"/>
+      <c r="B37" s="177"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="177"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="177"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="177"/>
+      <c r="M37" s="177"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="177"/>
+      <c r="P37" s="177"/>
+      <c r="Q37" s="177"/>
+      <c r="R37" s="177"/>
+      <c r="S37" s="177"/>
+      <c r="T37" s="177"/>
+      <c r="U37" s="177"/>
+      <c r="V37" s="177"/>
+      <c r="W37" s="177"/>
+      <c r="X37" s="177"/>
+      <c r="Y37" s="177"/>
+      <c r="Z37" s="177"/>
+      <c r="AA37" s="177"/>
+      <c r="AB37" s="177"/>
+      <c r="AC37" s="177"/>
+      <c r="AD37" s="177"/>
+      <c r="AE37" s="177"/>
+      <c r="AF37" s="177"/>
+      <c r="AG37" s="177"/>
+      <c r="AH37" s="177"/>
+      <c r="AI37" s="177"/>
+      <c r="AJ37" s="177"/>
+      <c r="AK37" s="177"/>
+      <c r="AL37" s="177"/>
+      <c r="AM37" s="177"/>
+      <c r="AN37" s="177"/>
+      <c r="AO37" s="177"/>
+      <c r="AP37" s="595"/>
+      <c r="AQ37" s="595"/>
+      <c r="AR37" s="595"/>
+      <c r="AS37" s="595"/>
+      <c r="AT37" s="595"/>
+      <c r="AU37" s="595"/>
+      <c r="AV37" s="595"/>
+      <c r="AW37" s="846"/>
+      <c r="AX37" s="595"/>
+      <c r="AY37" s="595"/>
+      <c r="AZ37" s="595"/>
+      <c r="BA37" s="595"/>
+      <c r="BB37" s="595"/>
+      <c r="BC37" s="595"/>
+      <c r="BD37" s="595"/>
+      <c r="BE37" s="177"/>
+      <c r="BF37" s="177"/>
+      <c r="BG37" s="177"/>
+      <c r="BH37" s="177"/>
+      <c r="BI37" s="177"/>
+      <c r="BJ37" s="177"/>
+      <c r="BK37" s="177"/>
+      <c r="BL37" s="177"/>
+      <c r="BM37" s="179"/>
+      <c r="BN37" s="601"/>
+    </row>
+    <row r="38" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A38" s="839"/>
+      <c r="B38" s="177"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="177"/>
+      <c r="F38" s="177"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="177"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="177"/>
+      <c r="M38" s="177"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="177"/>
+      <c r="P38" s="177"/>
+      <c r="Q38" s="177"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="177"/>
+      <c r="T38" s="177"/>
+      <c r="U38" s="177"/>
+      <c r="V38" s="177"/>
+      <c r="W38" s="177"/>
+      <c r="X38" s="177"/>
+      <c r="Y38" s="177"/>
+      <c r="Z38" s="177"/>
+      <c r="AA38" s="177"/>
+      <c r="AB38" s="177"/>
+      <c r="AC38" s="177"/>
+      <c r="AD38" s="177"/>
+      <c r="AE38" s="177"/>
+      <c r="AF38" s="177"/>
+      <c r="AG38" s="177"/>
+      <c r="AH38" s="177"/>
+      <c r="AI38" s="177"/>
+      <c r="AJ38" s="177"/>
+      <c r="AK38" s="177"/>
+      <c r="AL38" s="177"/>
+      <c r="AM38" s="177"/>
+      <c r="AN38" s="177"/>
+      <c r="AO38" s="177"/>
+      <c r="AP38" s="595"/>
+      <c r="AQ38" s="595"/>
+      <c r="AR38" s="595"/>
+      <c r="AS38" s="595"/>
+      <c r="AT38" s="595"/>
+      <c r="AU38" s="595"/>
+      <c r="AV38" s="595"/>
+      <c r="AW38" s="846"/>
+      <c r="AX38" s="595"/>
+      <c r="AY38" s="595"/>
+      <c r="AZ38" s="595"/>
+      <c r="BA38" s="595"/>
+      <c r="BB38" s="595"/>
+      <c r="BC38" s="595"/>
+      <c r="BD38" s="595"/>
+      <c r="BE38" s="177"/>
+      <c r="BF38" s="177"/>
+      <c r="BG38" s="177"/>
+      <c r="BH38" s="177"/>
+      <c r="BI38" s="177"/>
+      <c r="BJ38" s="177"/>
+      <c r="BK38" s="177"/>
+      <c r="BL38" s="177"/>
+      <c r="BM38" s="179"/>
+      <c r="BN38" s="601"/>
+    </row>
+    <row r="39" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A39" s="839"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="177"/>
+      <c r="F39" s="177"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="177"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="177"/>
+      <c r="M39" s="177"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="177"/>
+      <c r="P39" s="177"/>
+      <c r="Q39" s="177"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="177"/>
+      <c r="T39" s="177"/>
+      <c r="U39" s="177"/>
+      <c r="V39" s="177"/>
+      <c r="W39" s="177"/>
+      <c r="X39" s="177"/>
+      <c r="Y39" s="177"/>
+      <c r="Z39" s="177"/>
+      <c r="AA39" s="177"/>
+      <c r="AB39" s="177"/>
+      <c r="AC39" s="177"/>
+      <c r="AD39" s="177"/>
+      <c r="AE39" s="177"/>
+      <c r="AF39" s="177"/>
+      <c r="AG39" s="177"/>
+      <c r="AH39" s="177"/>
+      <c r="AI39" s="177"/>
+      <c r="AJ39" s="177"/>
+      <c r="AK39" s="177"/>
+      <c r="AL39" s="177"/>
+      <c r="AM39" s="177"/>
+      <c r="AN39" s="177"/>
+      <c r="AO39" s="177"/>
+      <c r="AP39" s="595"/>
+      <c r="AQ39" s="595"/>
+      <c r="AR39" s="595"/>
+      <c r="AS39" s="595"/>
+      <c r="AT39" s="595"/>
+      <c r="AU39" s="595"/>
+      <c r="AV39" s="595"/>
+      <c r="AW39" s="846"/>
+      <c r="AX39" s="595"/>
+      <c r="AY39" s="595"/>
+      <c r="AZ39" s="595"/>
+      <c r="BA39" s="595"/>
+      <c r="BB39" s="595"/>
+      <c r="BC39" s="595"/>
+      <c r="BD39" s="595"/>
+      <c r="BE39" s="177"/>
+      <c r="BF39" s="177"/>
+      <c r="BG39" s="177"/>
+      <c r="BH39" s="177"/>
+      <c r="BI39" s="177"/>
+      <c r="BJ39" s="177"/>
+      <c r="BK39" s="177"/>
+      <c r="BL39" s="177"/>
+      <c r="BM39" s="179"/>
+      <c r="BN39" s="601"/>
+    </row>
+    <row r="40" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A40" s="839"/>
+      <c r="B40" s="177"/>
+      <c r="C40" s="177"/>
+      <c r="D40" s="177"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="177"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="177"/>
+      <c r="M40" s="177"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="177"/>
+      <c r="P40" s="177"/>
+      <c r="Q40" s="177"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="177"/>
+      <c r="T40" s="177"/>
+      <c r="U40" s="177"/>
+      <c r="V40" s="177"/>
+      <c r="W40" s="177"/>
+      <c r="X40" s="177"/>
+      <c r="Y40" s="177"/>
+      <c r="Z40" s="177"/>
+      <c r="AA40" s="177"/>
+      <c r="AB40" s="177"/>
+      <c r="AC40" s="177"/>
+      <c r="AD40" s="177"/>
+      <c r="AE40" s="177"/>
+      <c r="AF40" s="177"/>
+      <c r="AG40" s="177"/>
+      <c r="AH40" s="177"/>
+      <c r="AI40" s="177"/>
+      <c r="AJ40" s="177"/>
+      <c r="AK40" s="177"/>
+      <c r="AL40" s="177"/>
+      <c r="AM40" s="177"/>
+      <c r="AN40" s="177"/>
+      <c r="AO40" s="177"/>
+      <c r="AP40" s="595"/>
+      <c r="AQ40" s="595"/>
+      <c r="AR40" s="595"/>
+      <c r="AS40" s="595"/>
+      <c r="AT40" s="595"/>
+      <c r="AU40" s="595"/>
+      <c r="AV40" s="595"/>
+      <c r="AW40" s="846"/>
+      <c r="AX40" s="595"/>
+      <c r="AY40" s="595"/>
+      <c r="AZ40" s="595"/>
+      <c r="BA40" s="595"/>
+      <c r="BB40" s="595"/>
+      <c r="BC40" s="595"/>
+      <c r="BD40" s="595"/>
+      <c r="BE40" s="177"/>
+      <c r="BF40" s="177"/>
+      <c r="BG40" s="177"/>
+      <c r="BH40" s="177"/>
+      <c r="BI40" s="177"/>
+      <c r="BJ40" s="177"/>
+      <c r="BK40" s="177"/>
+      <c r="BL40" s="177"/>
+      <c r="BM40" s="179"/>
+      <c r="BN40" s="601"/>
+    </row>
+    <row r="41" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A41" s="839"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="177"/>
+      <c r="E41" s="177"/>
+      <c r="F41" s="177"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="177"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="177"/>
+      <c r="M41" s="177"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="177"/>
+      <c r="P41" s="177"/>
+      <c r="Q41" s="177"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="177"/>
+      <c r="T41" s="177"/>
+      <c r="U41" s="177"/>
+      <c r="V41" s="177"/>
+      <c r="W41" s="177"/>
+      <c r="X41" s="177"/>
+      <c r="Y41" s="177"/>
+      <c r="Z41" s="177"/>
+      <c r="AA41" s="177"/>
+      <c r="AB41" s="177"/>
+      <c r="AC41" s="177"/>
+      <c r="AD41" s="177"/>
+      <c r="AE41" s="177"/>
+      <c r="AF41" s="177"/>
+      <c r="AG41" s="177"/>
+      <c r="AH41" s="177"/>
+      <c r="AI41" s="177"/>
+      <c r="AJ41" s="177"/>
+      <c r="AK41" s="177"/>
+      <c r="AL41" s="177"/>
+      <c r="AM41" s="177"/>
+      <c r="AN41" s="177"/>
+      <c r="AO41" s="177"/>
+      <c r="AP41" s="595"/>
+      <c r="AQ41" s="595"/>
+      <c r="AR41" s="595"/>
+      <c r="AS41" s="595"/>
+      <c r="AT41" s="595"/>
+      <c r="AU41" s="595"/>
+      <c r="AV41" s="595"/>
+      <c r="AW41" s="846"/>
+      <c r="AX41" s="595"/>
+      <c r="AY41" s="595"/>
+      <c r="AZ41" s="595"/>
+      <c r="BA41" s="595"/>
+      <c r="BB41" s="595"/>
+      <c r="BC41" s="595"/>
+      <c r="BD41" s="595"/>
+      <c r="BE41" s="177"/>
+      <c r="BF41" s="177"/>
+      <c r="BG41" s="177"/>
+      <c r="BH41" s="177"/>
+      <c r="BI41" s="177"/>
+      <c r="BJ41" s="177"/>
+      <c r="BK41" s="177"/>
+      <c r="BL41" s="177"/>
+      <c r="BM41" s="179"/>
+      <c r="BN41" s="601"/>
+    </row>
+    <row r="42" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A42" s="839"/>
+      <c r="B42" s="177"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="177"/>
+      <c r="E42" s="177"/>
+      <c r="F42" s="177"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="177"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="177"/>
+      <c r="M42" s="177"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="177"/>
+      <c r="P42" s="177"/>
+      <c r="Q42" s="177"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="177"/>
+      <c r="T42" s="177"/>
+      <c r="U42" s="177"/>
+      <c r="V42" s="177"/>
+      <c r="W42" s="177"/>
+      <c r="X42" s="177"/>
+      <c r="Y42" s="177"/>
+      <c r="Z42" s="177"/>
+      <c r="AA42" s="177"/>
+      <c r="AB42" s="177"/>
+      <c r="AC42" s="177"/>
+      <c r="AD42" s="177"/>
+      <c r="AE42" s="177"/>
+      <c r="AF42" s="177"/>
+      <c r="AG42" s="177"/>
+      <c r="AH42" s="177"/>
+      <c r="AI42" s="177"/>
+      <c r="AJ42" s="177"/>
+      <c r="AK42" s="177"/>
+      <c r="AL42" s="177"/>
+      <c r="AM42" s="177"/>
+      <c r="AN42" s="177"/>
+      <c r="AO42" s="177"/>
+      <c r="AP42" s="595"/>
+      <c r="AQ42" s="595"/>
+      <c r="AR42" s="595"/>
+      <c r="AS42" s="595"/>
+      <c r="AT42" s="595"/>
+      <c r="AU42" s="595"/>
+      <c r="AV42" s="595"/>
+      <c r="AW42" s="846"/>
+      <c r="AX42" s="595"/>
+      <c r="AY42" s="595"/>
+      <c r="AZ42" s="595"/>
+      <c r="BA42" s="595"/>
+      <c r="BB42" s="595"/>
+      <c r="BC42" s="595"/>
+      <c r="BD42" s="595"/>
+      <c r="BE42" s="177"/>
+      <c r="BF42" s="177"/>
+      <c r="BG42" s="177"/>
+      <c r="BH42" s="177"/>
+      <c r="BI42" s="177"/>
+      <c r="BJ42" s="177"/>
+      <c r="BK42" s="177"/>
+      <c r="BL42" s="177"/>
+      <c r="BM42" s="179"/>
+      <c r="BN42" s="601"/>
+    </row>
+    <row r="43" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A43" s="847"/>
+      <c r="B43" s="848"/>
+      <c r="C43" s="848"/>
+      <c r="D43" s="848"/>
+      <c r="E43" s="848"/>
+      <c r="F43" s="848"/>
+      <c r="G43" s="848"/>
+      <c r="H43" s="848"/>
+      <c r="I43" s="848"/>
+      <c r="J43" s="848"/>
+      <c r="K43" s="848"/>
+      <c r="L43" s="848"/>
+      <c r="M43" s="848"/>
+      <c r="N43" s="848"/>
+      <c r="O43" s="848"/>
+      <c r="P43" s="848"/>
+      <c r="Q43" s="848"/>
+      <c r="R43" s="848"/>
+      <c r="S43" s="848"/>
+      <c r="T43" s="848"/>
+      <c r="U43" s="848"/>
+      <c r="V43" s="848"/>
+      <c r="W43" s="848"/>
+      <c r="X43" s="848"/>
+      <c r="Y43" s="848"/>
+      <c r="Z43" s="848"/>
+      <c r="AA43" s="848"/>
+      <c r="AB43" s="848"/>
+      <c r="AC43" s="848"/>
+      <c r="AD43" s="848"/>
+      <c r="AE43" s="848"/>
+      <c r="AF43" s="848"/>
+      <c r="AG43" s="848"/>
+      <c r="AH43" s="848"/>
+      <c r="AI43" s="848"/>
+      <c r="AJ43" s="848"/>
+      <c r="AK43" s="848"/>
+      <c r="AL43" s="848"/>
+      <c r="AM43" s="848"/>
+      <c r="AN43" s="848"/>
+      <c r="AO43" s="848"/>
+      <c r="AP43" s="849"/>
+      <c r="AQ43" s="849"/>
+      <c r="AR43" s="849"/>
+      <c r="AS43" s="849"/>
+      <c r="AT43" s="849"/>
+      <c r="AU43" s="849"/>
+      <c r="AV43" s="849"/>
+      <c r="AW43" s="850"/>
+      <c r="AX43" s="849"/>
+      <c r="AY43" s="849"/>
+      <c r="AZ43" s="849"/>
+      <c r="BA43" s="849"/>
+      <c r="BB43" s="849"/>
+      <c r="BC43" s="849"/>
+      <c r="BD43" s="849"/>
+      <c r="BE43" s="848"/>
+      <c r="BF43" s="848"/>
+      <c r="BG43" s="848"/>
+      <c r="BH43" s="848"/>
+      <c r="BI43" s="848"/>
+      <c r="BJ43" s="848"/>
+      <c r="BK43" s="848"/>
+      <c r="BL43" s="848"/>
+      <c r="BM43" s="851"/>
+      <c r="BN43" s="852"/>
+    </row>
+    <row r="44" customHeight="1" ht="12" customFormat="1" s="799">
+      <c r="A44" s="839"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="177"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
+      <c r="U44" s="177"/>
+      <c r="V44" s="177"/>
+      <c r="W44" s="177"/>
+      <c r="X44" s="177"/>
+      <c r="Y44" s="177"/>
+      <c r="Z44" s="177"/>
+      <c r="AA44" s="177"/>
+      <c r="AB44" s="177"/>
+      <c r="AC44" s="177"/>
+      <c r="AD44" s="177"/>
+      <c r="AE44" s="177"/>
+      <c r="AF44" s="177"/>
+      <c r="AG44" s="177"/>
+      <c r="AH44" s="177"/>
+      <c r="AI44" s="177"/>
+      <c r="AJ44" s="177"/>
+      <c r="AK44" s="177"/>
+      <c r="AL44" s="177"/>
+      <c r="AM44" s="177"/>
+      <c r="AN44" s="177"/>
+      <c r="AO44" s="177"/>
+      <c r="AP44" s="595"/>
+      <c r="AQ44" s="595"/>
+      <c r="AR44" s="595"/>
+      <c r="AS44" s="595"/>
+      <c r="AT44" s="595"/>
+      <c r="AU44" s="595"/>
+      <c r="AV44" s="595"/>
+      <c r="AW44" s="595"/>
+      <c r="AX44" s="595"/>
+      <c r="AY44" s="595"/>
+      <c r="AZ44" s="595"/>
+      <c r="BA44" s="595"/>
+      <c r="BB44" s="595"/>
+      <c r="BC44" s="595"/>
+      <c r="BD44" s="595"/>
+      <c r="BE44" s="595"/>
+      <c r="BF44" s="595"/>
+      <c r="BG44" s="595"/>
+      <c r="BH44" s="595"/>
+      <c r="BI44" s="595"/>
+      <c r="BJ44" s="595"/>
+      <c r="BK44" s="595"/>
+      <c r="BL44" s="595"/>
+      <c r="BM44" s="595"/>
+      <c r="BN44" s="595"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BN4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BN5"/>
+    <mergeCell ref="AW6:BM7"/>
+    <mergeCell ref="BE8:BM8"/>
+    <mergeCell ref="BE9:BM9"/>
+    <mergeCell ref="BE26:BM26"/>
+    <mergeCell ref="BE27:BM27"/>
+    <mergeCell ref="BE28:BM28"/>
+    <mergeCell ref="BE29:BM29"/>
+    <mergeCell ref="BE30:BM30"/>
+    <mergeCell ref="BE31:BM31"/>
+    <mergeCell ref="BE32:BM32"/>
+    <mergeCell ref="BE33:BM33"/>
+    <mergeCell ref="BE34:BM34"/>
+    <mergeCell ref="BE35:BM35"/>
+    <mergeCell ref="BE36:BM36"/>
+    <mergeCell ref="BE37:BM37"/>
+    <mergeCell ref="BE38:BM38"/>
+    <mergeCell ref="BE39:BM39"/>
+    <mergeCell ref="BE40:BM40"/>
+    <mergeCell ref="BE41:BM41"/>
+    <mergeCell ref="BE42:BM42"/>
+    <mergeCell ref="BE43:BM43"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/DOC/基本設計/基本設計_emsm_ 雇用保険率リスト.xlsx
+++ b/DOC/基本設計/基本設計_emsm_ 雇用保険率リスト.xlsx
@@ -784,7 +784,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="80" x14ac:knownFonts="1">
+  <fonts count="83" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,6 +1281,24 @@
       <charset val="128"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1320,7 +1338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="234">
+  <borders count="248">
     <border>
       <left/>
       <right/>
@@ -3467,13 +3485,103 @@
       <right style="thin"/>
       <top style="double"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin"/>
+      <top style="none"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="853">
+  <cellXfs count="867">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6282,6 +6390,61 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="77" applyFont="1" fillId="3" applyFill="1" borderId="15" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="3" applyFill="1" borderId="234" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="235" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="236" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="237" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" borderId="238" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="80" applyFont="1" fillId="0" applyFill="1" borderId="239" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="240" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="241" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="242" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="243" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="244" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="245" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="246" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="82" applyFont="1" fillId="0" applyFill="1" borderId="247" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6348,15 +6511,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -6366,7 +6529,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1219200"/>
+          <a:off x="152400" y="1066800"/>
           <a:ext cx="1514475" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6450,25 +6613,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1533525"/>
+          <a:off x="228600" y="1381125"/>
           <a:ext cx="457200" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6509,25 +6672,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="直線矢印コネクタ 14"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666750" y="1933575"/>
+          <a:off x="209550" y="1733550"/>
           <a:ext cx="495300" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6556,25 +6719,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3238500" y="3048000"/>
+          <a:off x="1524000" y="3505200"/>
           <a:ext cx="1162050" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6618,25 +6781,72 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="3667125"/>
+          <a:ext cx="1676400" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6096000" y="3048000"/>
+          <a:off x="4419600" y="3505200"/>
           <a:ext cx="1171575" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6671,7 +6881,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メニュー画面</a:t>
+            <a:t>リスト画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6680,72 +6890,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp>
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 11"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4410075" y="3209925"/>
-          <a:ext cx="1676400" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="2695575"/>
+          <a:off x="2895600" y="3200400"/>
           <a:ext cx="1162050" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7093,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB840810-B8C4-461F-9614-119EB62AE124}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G23" sqref="G23:R24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -8055,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E19B7-31DE-4E95-B92B-26CE81A60D0C}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
-      <selection activeCell="AN21" sqref="AN21" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A4" workbookViewId="0" zoomScale="120" zoomScaleNormal="120">
+      <selection activeCell="AU26" sqref="AU26" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14069,7 +14232,7 @@
   <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView showGridLines="false" topLeftCell="A1" workbookViewId="0" zoomScale="110" zoomScaleNormal="110">
-      <selection activeCell="K21" sqref="K21" activeCellId="0"/>
+      <selection activeCell="T24" sqref="T24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15550,267 +15713,267 @@
     <row r="15" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A15" s="691"/>
       <c r="B15" s="399"/>
-      <c r="C15" s="511" t="s">
+      <c r="C15" s="855" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="507"/>
-      <c r="E15" s="507"/>
-      <c r="F15" s="507"/>
-      <c r="G15" s="507"/>
-      <c r="H15" s="507"/>
-      <c r="I15" s="507"/>
-      <c r="J15" s="507"/>
-      <c r="K15" s="507"/>
-      <c r="L15" s="507"/>
-      <c r="M15" s="507"/>
-      <c r="N15" s="507"/>
-      <c r="O15" s="507"/>
-      <c r="P15" s="507"/>
-      <c r="Q15" s="507"/>
-      <c r="R15" s="507"/>
-      <c r="S15" s="507"/>
-      <c r="T15" s="507"/>
-      <c r="U15" s="507"/>
-      <c r="V15" s="507"/>
-      <c r="W15" s="507"/>
-      <c r="X15" s="507"/>
-      <c r="Y15" s="507"/>
-      <c r="Z15" s="507"/>
-      <c r="AA15" s="507"/>
-      <c r="AB15" s="507"/>
-      <c r="AC15" s="507"/>
-      <c r="AD15" s="507"/>
-      <c r="AE15" s="507"/>
-      <c r="AF15" s="507"/>
-      <c r="AG15" s="507"/>
-      <c r="AH15" s="507"/>
-      <c r="AI15" s="507"/>
-      <c r="AJ15" s="507"/>
-      <c r="AK15" s="507"/>
-      <c r="AL15" s="507"/>
-      <c r="AM15" s="507"/>
-      <c r="AN15" s="507"/>
-      <c r="AO15" s="507"/>
-      <c r="AP15" s="507"/>
-      <c r="AQ15" s="507"/>
-      <c r="AR15" s="507"/>
-      <c r="AS15" s="507"/>
-      <c r="AT15" s="507"/>
-      <c r="AU15" s="507"/>
-      <c r="AV15" s="507"/>
-      <c r="AW15" s="507"/>
-      <c r="AX15" s="507"/>
-      <c r="AY15" s="507"/>
-      <c r="AZ15" s="507"/>
-      <c r="BA15" s="507"/>
-      <c r="BB15" s="507"/>
-      <c r="BC15" s="507"/>
-      <c r="BD15" s="507"/>
-      <c r="BE15" s="507"/>
-      <c r="BF15" s="507"/>
-      <c r="BG15" s="507"/>
-      <c r="BH15" s="507"/>
-      <c r="BI15" s="507"/>
-      <c r="BJ15" s="507"/>
-      <c r="BK15" s="512"/>
+      <c r="D15" s="856"/>
+      <c r="E15" s="856"/>
+      <c r="F15" s="856"/>
+      <c r="G15" s="856"/>
+      <c r="H15" s="856"/>
+      <c r="I15" s="856"/>
+      <c r="J15" s="856"/>
+      <c r="K15" s="856"/>
+      <c r="L15" s="856"/>
+      <c r="M15" s="856"/>
+      <c r="N15" s="856"/>
+      <c r="O15" s="856"/>
+      <c r="P15" s="856"/>
+      <c r="Q15" s="856"/>
+      <c r="R15" s="856"/>
+      <c r="S15" s="856"/>
+      <c r="T15" s="856"/>
+      <c r="U15" s="856"/>
+      <c r="V15" s="856"/>
+      <c r="W15" s="856"/>
+      <c r="X15" s="856"/>
+      <c r="Y15" s="856"/>
+      <c r="Z15" s="856"/>
+      <c r="AA15" s="856"/>
+      <c r="AB15" s="856"/>
+      <c r="AC15" s="856"/>
+      <c r="AD15" s="856"/>
+      <c r="AE15" s="856"/>
+      <c r="AF15" s="856"/>
+      <c r="AG15" s="856"/>
+      <c r="AH15" s="856"/>
+      <c r="AI15" s="856"/>
+      <c r="AJ15" s="856"/>
+      <c r="AK15" s="856"/>
+      <c r="AL15" s="856"/>
+      <c r="AM15" s="856"/>
+      <c r="AN15" s="856"/>
+      <c r="AO15" s="856"/>
+      <c r="AP15" s="856"/>
+      <c r="AQ15" s="856"/>
+      <c r="AR15" s="856"/>
+      <c r="AS15" s="856"/>
+      <c r="AT15" s="856"/>
+      <c r="AU15" s="856"/>
+      <c r="AV15" s="856"/>
+      <c r="AW15" s="856"/>
+      <c r="AX15" s="856"/>
+      <c r="AY15" s="856"/>
+      <c r="AZ15" s="856"/>
+      <c r="BA15" s="856"/>
+      <c r="BB15" s="856"/>
+      <c r="BC15" s="856"/>
+      <c r="BD15" s="856"/>
+      <c r="BE15" s="856"/>
+      <c r="BF15" s="856"/>
+      <c r="BG15" s="856"/>
+      <c r="BH15" s="856"/>
+      <c r="BI15" s="856"/>
+      <c r="BJ15" s="856"/>
+      <c r="BK15" s="857"/>
       <c r="BL15" s="653"/>
     </row>
-    <row r="16" customHeight="1" ht="12" customFormat="1" s="78">
+    <row r="16" ht="12" customFormat="1" s="78">
       <c r="A16" s="691"/>
-      <c r="B16" s="399"/>
-      <c r="C16" s="399"/>
-      <c r="D16" s="399"/>
-      <c r="E16" s="399"/>
-      <c r="F16" s="399"/>
-      <c r="G16" s="399"/>
-      <c r="H16" s="399"/>
-      <c r="I16" s="399"/>
-      <c r="J16" s="399"/>
-      <c r="K16" s="399"/>
-      <c r="L16" s="399"/>
-      <c r="M16" s="399"/>
-      <c r="N16" s="399"/>
-      <c r="O16" s="399"/>
-      <c r="P16" s="399"/>
-      <c r="Q16" s="399"/>
-      <c r="R16" s="399"/>
-      <c r="S16" s="399"/>
-      <c r="T16" s="399"/>
-      <c r="U16" s="399"/>
-      <c r="V16" s="399"/>
-      <c r="W16" s="399"/>
-      <c r="X16" s="399"/>
-      <c r="Y16" s="399"/>
-      <c r="Z16" s="399"/>
-      <c r="AA16" s="399"/>
-      <c r="AB16" s="399"/>
-      <c r="AC16" s="399"/>
-      <c r="AD16" s="399"/>
-      <c r="AE16" s="399"/>
-      <c r="AF16" s="399"/>
-      <c r="AG16" s="399"/>
-      <c r="AH16" s="399"/>
-      <c r="AI16" s="399"/>
-      <c r="AJ16" s="399"/>
-      <c r="AK16" s="399"/>
-      <c r="AL16" s="399"/>
-      <c r="AM16" s="399"/>
-      <c r="AN16" s="399"/>
-      <c r="AO16" s="399"/>
-      <c r="AP16" s="399"/>
-      <c r="AQ16" s="399"/>
-      <c r="AR16" s="399"/>
-      <c r="AS16" s="399"/>
-      <c r="AT16" s="399"/>
-      <c r="AU16" s="399"/>
-      <c r="AV16" s="399"/>
-      <c r="AW16" s="399"/>
-      <c r="AX16" s="399"/>
-      <c r="AY16" s="399"/>
-      <c r="AZ16" s="399"/>
-      <c r="BA16" s="399"/>
-      <c r="BB16" s="399"/>
-      <c r="BC16" s="399"/>
-      <c r="BD16" s="399"/>
-      <c r="BE16" s="399"/>
-      <c r="BF16" s="399"/>
-      <c r="BG16" s="399"/>
-      <c r="BH16" s="399"/>
-      <c r="BI16" s="399"/>
-      <c r="BJ16" s="399"/>
-      <c r="BK16" s="399"/>
+      <c r="B16" s="854"/>
+      <c r="C16" s="865"/>
+      <c r="D16" s="863"/>
+      <c r="E16" s="863"/>
+      <c r="F16" s="863"/>
+      <c r="G16" s="863"/>
+      <c r="H16" s="863"/>
+      <c r="I16" s="863"/>
+      <c r="J16" s="863"/>
+      <c r="K16" s="863"/>
+      <c r="L16" s="863"/>
+      <c r="M16" s="863"/>
+      <c r="N16" s="863"/>
+      <c r="O16" s="863"/>
+      <c r="P16" s="863"/>
+      <c r="Q16" s="863"/>
+      <c r="R16" s="863"/>
+      <c r="S16" s="863"/>
+      <c r="T16" s="863"/>
+      <c r="U16" s="863"/>
+      <c r="V16" s="863"/>
+      <c r="W16" s="863"/>
+      <c r="X16" s="863"/>
+      <c r="Y16" s="863"/>
+      <c r="Z16" s="863"/>
+      <c r="AA16" s="863"/>
+      <c r="AB16" s="863"/>
+      <c r="AC16" s="863"/>
+      <c r="AD16" s="863"/>
+      <c r="AE16" s="863"/>
+      <c r="AF16" s="863"/>
+      <c r="AG16" s="863"/>
+      <c r="AH16" s="863"/>
+      <c r="AI16" s="863"/>
+      <c r="AJ16" s="863"/>
+      <c r="AK16" s="863"/>
+      <c r="AL16" s="863"/>
+      <c r="AM16" s="863"/>
+      <c r="AN16" s="863"/>
+      <c r="AO16" s="863"/>
+      <c r="AP16" s="863"/>
+      <c r="AQ16" s="863"/>
+      <c r="AR16" s="863"/>
+      <c r="AS16" s="863"/>
+      <c r="AT16" s="863"/>
+      <c r="AU16" s="863"/>
+      <c r="AV16" s="863"/>
+      <c r="AW16" s="863"/>
+      <c r="AX16" s="863"/>
+      <c r="AY16" s="863"/>
+      <c r="AZ16" s="863"/>
+      <c r="BA16" s="863"/>
+      <c r="BB16" s="863"/>
+      <c r="BC16" s="863"/>
+      <c r="BD16" s="863"/>
+      <c r="BE16" s="863"/>
+      <c r="BF16" s="863"/>
+      <c r="BG16" s="863"/>
+      <c r="BH16" s="863"/>
+      <c r="BI16" s="863"/>
+      <c r="BJ16" s="863"/>
+      <c r="BK16" s="866"/>
       <c r="BL16" s="653"/>
     </row>
     <row r="17" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A17" s="691"/>
       <c r="B17" s="399"/>
-      <c r="C17" s="399"/>
-      <c r="D17" s="399"/>
-      <c r="E17" s="399"/>
-      <c r="F17" s="399"/>
-      <c r="G17" s="399"/>
-      <c r="H17" s="399"/>
-      <c r="I17" s="399"/>
-      <c r="J17" s="399"/>
-      <c r="K17" s="399"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="399"/>
-      <c r="N17" s="399"/>
-      <c r="O17" s="399"/>
-      <c r="P17" s="399"/>
-      <c r="Q17" s="519"/>
-      <c r="R17" s="399"/>
-      <c r="S17" s="399"/>
-      <c r="T17" s="399"/>
-      <c r="U17" s="399"/>
-      <c r="V17" s="399"/>
-      <c r="W17" s="399"/>
-      <c r="X17" s="399"/>
-      <c r="Y17" s="399"/>
-      <c r="Z17" s="399"/>
-      <c r="AA17" s="399"/>
-      <c r="AB17" s="399"/>
-      <c r="AC17" s="399"/>
-      <c r="AD17" s="399"/>
-      <c r="AE17" s="399"/>
-      <c r="AF17" s="399"/>
-      <c r="AG17" s="399"/>
-      <c r="AH17" s="399"/>
-      <c r="AI17" s="399"/>
-      <c r="AJ17" s="399"/>
-      <c r="AK17" s="399"/>
-      <c r="AL17" s="399"/>
-      <c r="AM17" s="399"/>
-      <c r="AN17" s="399"/>
-      <c r="AO17" s="399"/>
-      <c r="AP17" s="399"/>
-      <c r="AQ17" s="399"/>
-      <c r="AR17" s="399"/>
-      <c r="AS17" s="399"/>
-      <c r="AT17" s="399"/>
-      <c r="AU17" s="399"/>
-      <c r="AV17" s="399"/>
-      <c r="AW17" s="399"/>
-      <c r="AX17" s="399"/>
-      <c r="AY17" s="399"/>
-      <c r="AZ17" s="399"/>
-      <c r="BA17" s="399"/>
-      <c r="BB17" s="399"/>
-      <c r="BC17" s="399"/>
-      <c r="BD17" s="399"/>
-      <c r="BE17" s="399"/>
-      <c r="BF17" s="399"/>
-      <c r="BG17" s="399"/>
-      <c r="BH17" s="399"/>
-      <c r="BI17" s="399"/>
-      <c r="BJ17" s="399"/>
-      <c r="BK17" s="399"/>
+      <c r="C17" s="858"/>
+      <c r="D17" s="858"/>
+      <c r="E17" s="858"/>
+      <c r="F17" s="858"/>
+      <c r="G17" s="858"/>
+      <c r="H17" s="858"/>
+      <c r="I17" s="858"/>
+      <c r="J17" s="858"/>
+      <c r="K17" s="858"/>
+      <c r="L17" s="858"/>
+      <c r="M17" s="858"/>
+      <c r="N17" s="858"/>
+      <c r="O17" s="858"/>
+      <c r="P17" s="858"/>
+      <c r="Q17" s="858"/>
+      <c r="R17" s="858"/>
+      <c r="S17" s="858"/>
+      <c r="T17" s="858"/>
+      <c r="U17" s="858"/>
+      <c r="V17" s="858"/>
+      <c r="W17" s="858"/>
+      <c r="X17" s="858"/>
+      <c r="Y17" s="858"/>
+      <c r="Z17" s="858"/>
+      <c r="AA17" s="858"/>
+      <c r="AB17" s="858"/>
+      <c r="AC17" s="858"/>
+      <c r="AD17" s="858"/>
+      <c r="AE17" s="858"/>
+      <c r="AF17" s="858"/>
+      <c r="AG17" s="858"/>
+      <c r="AH17" s="858"/>
+      <c r="AI17" s="858"/>
+      <c r="AJ17" s="858"/>
+      <c r="AK17" s="858"/>
+      <c r="AL17" s="858"/>
+      <c r="AM17" s="858"/>
+      <c r="AN17" s="858"/>
+      <c r="AO17" s="858"/>
+      <c r="AP17" s="858"/>
+      <c r="AQ17" s="858"/>
+      <c r="AR17" s="858"/>
+      <c r="AS17" s="858"/>
+      <c r="AT17" s="858"/>
+      <c r="AU17" s="858"/>
+      <c r="AV17" s="858"/>
+      <c r="AW17" s="858"/>
+      <c r="AX17" s="858"/>
+      <c r="AY17" s="858"/>
+      <c r="AZ17" s="858"/>
+      <c r="BA17" s="858"/>
+      <c r="BB17" s="858"/>
+      <c r="BC17" s="858"/>
+      <c r="BD17" s="858"/>
+      <c r="BE17" s="858"/>
+      <c r="BF17" s="858"/>
+      <c r="BG17" s="858"/>
+      <c r="BH17" s="858"/>
+      <c r="BI17" s="858"/>
+      <c r="BJ17" s="858"/>
+      <c r="BK17" s="858"/>
       <c r="BL17" s="653"/>
     </row>
     <row r="18" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A18" s="691"/>
-      <c r="B18" s="523"/>
-      <c r="C18" s="523"/>
-      <c r="D18" s="523"/>
-      <c r="E18" s="523"/>
-      <c r="F18" s="523"/>
-      <c r="G18" s="523"/>
-      <c r="H18" s="523"/>
-      <c r="I18" s="523"/>
-      <c r="J18" s="523"/>
-      <c r="K18" s="523"/>
-      <c r="L18" s="523"/>
-      <c r="M18" s="523"/>
-      <c r="N18" s="523"/>
-      <c r="O18" s="523"/>
-      <c r="P18" s="523"/>
-      <c r="Q18" s="523"/>
-      <c r="R18" s="523"/>
-      <c r="S18" s="523"/>
-      <c r="T18" s="523"/>
-      <c r="U18" s="523"/>
-      <c r="V18" s="523"/>
-      <c r="W18" s="523"/>
-      <c r="X18" s="523"/>
-      <c r="Y18" s="523"/>
-      <c r="Z18" s="523"/>
-      <c r="AA18" s="523"/>
-      <c r="AB18" s="523"/>
-      <c r="AC18" s="523"/>
-      <c r="AD18" s="523"/>
-      <c r="AE18" s="523"/>
-      <c r="AF18" s="523"/>
-      <c r="AG18" s="523"/>
-      <c r="AH18" s="523"/>
-      <c r="AI18" s="523"/>
-      <c r="AJ18" s="523"/>
-      <c r="AK18" s="523"/>
-      <c r="AL18" s="523"/>
-      <c r="AM18" s="523"/>
-      <c r="AN18" s="523"/>
-      <c r="AO18" s="523"/>
-      <c r="AP18" s="523"/>
-      <c r="AQ18" s="523"/>
-      <c r="AR18" s="523"/>
-      <c r="AS18" s="523"/>
-      <c r="AT18" s="523"/>
-      <c r="AU18" s="523"/>
-      <c r="AV18" s="523"/>
-      <c r="AW18" s="523"/>
-      <c r="AX18" s="523"/>
-      <c r="AY18" s="523"/>
-      <c r="AZ18" s="523"/>
-      <c r="BA18" s="523"/>
-      <c r="BB18" s="523"/>
-      <c r="BC18" s="523"/>
-      <c r="BD18" s="523"/>
-      <c r="BE18" s="523"/>
-      <c r="BF18" s="523"/>
-      <c r="BG18" s="523"/>
-      <c r="BH18" s="523"/>
-      <c r="BI18" s="523"/>
-      <c r="BJ18" s="523"/>
-      <c r="BK18" s="523"/>
+      <c r="B18" s="399"/>
+      <c r="C18" s="399"/>
+      <c r="D18" s="399"/>
+      <c r="E18" s="399"/>
+      <c r="F18" s="399"/>
+      <c r="G18" s="399"/>
+      <c r="H18" s="399"/>
+      <c r="I18" s="399"/>
+      <c r="J18" s="399"/>
+      <c r="K18" s="399"/>
+      <c r="L18" s="399"/>
+      <c r="M18" s="399"/>
+      <c r="N18" s="399"/>
+      <c r="O18" s="399"/>
+      <c r="P18" s="399"/>
+      <c r="Q18" s="519"/>
+      <c r="R18" s="399"/>
+      <c r="S18" s="399"/>
+      <c r="T18" s="399"/>
+      <c r="U18" s="399"/>
+      <c r="V18" s="399"/>
+      <c r="W18" s="399"/>
+      <c r="X18" s="399"/>
+      <c r="Y18" s="399"/>
+      <c r="Z18" s="399"/>
+      <c r="AA18" s="399"/>
+      <c r="AB18" s="399"/>
+      <c r="AC18" s="399"/>
+      <c r="AD18" s="399"/>
+      <c r="AE18" s="399"/>
+      <c r="AF18" s="399"/>
+      <c r="AG18" s="399"/>
+      <c r="AH18" s="399"/>
+      <c r="AI18" s="399"/>
+      <c r="AJ18" s="399"/>
+      <c r="AK18" s="399"/>
+      <c r="AL18" s="399"/>
+      <c r="AM18" s="399"/>
+      <c r="AN18" s="399"/>
+      <c r="AO18" s="399"/>
+      <c r="AP18" s="399"/>
+      <c r="AQ18" s="399"/>
+      <c r="AR18" s="399"/>
+      <c r="AS18" s="399"/>
+      <c r="AT18" s="399"/>
+      <c r="AU18" s="399"/>
+      <c r="AV18" s="399"/>
+      <c r="AW18" s="399"/>
+      <c r="AX18" s="399"/>
+      <c r="AY18" s="399"/>
+      <c r="AZ18" s="399"/>
+      <c r="BA18" s="399"/>
+      <c r="BB18" s="399"/>
+      <c r="BC18" s="399"/>
+      <c r="BD18" s="399"/>
+      <c r="BE18" s="399"/>
+      <c r="BF18" s="399"/>
+      <c r="BG18" s="399"/>
+      <c r="BH18" s="399"/>
+      <c r="BI18" s="399"/>
+      <c r="BJ18" s="399"/>
+      <c r="BK18" s="399"/>
       <c r="BL18" s="653"/>
     </row>
     <row r="19" customHeight="1" ht="12" customFormat="1" s="78">
@@ -15879,7 +16042,7 @@
       <c r="BK19" s="523"/>
       <c r="BL19" s="653"/>
     </row>
-    <row r="20" customHeight="1" ht="12">
+    <row r="20" customHeight="1" ht="12" customFormat="1" s="78">
       <c r="A20" s="691"/>
       <c r="B20" s="523"/>
       <c r="C20" s="523"/>
@@ -16276,70 +16439,136 @@
       <c r="BL25" s="653"/>
     </row>
     <row r="26" customHeight="1" ht="12">
-      <c r="A26" s="695"/>
-      <c r="B26" s="524"/>
-      <c r="C26" s="524"/>
-      <c r="D26" s="524"/>
-      <c r="E26" s="524"/>
-      <c r="F26" s="524"/>
-      <c r="G26" s="524"/>
-      <c r="H26" s="524"/>
-      <c r="I26" s="524"/>
-      <c r="J26" s="524"/>
-      <c r="K26" s="524"/>
-      <c r="L26" s="524"/>
-      <c r="M26" s="524"/>
-      <c r="N26" s="524"/>
-      <c r="O26" s="524"/>
-      <c r="P26" s="524"/>
-      <c r="Q26" s="524"/>
-      <c r="R26" s="524"/>
-      <c r="S26" s="524"/>
-      <c r="T26" s="524"/>
-      <c r="U26" s="524"/>
-      <c r="V26" s="524"/>
-      <c r="W26" s="524"/>
-      <c r="X26" s="524"/>
-      <c r="Y26" s="524"/>
-      <c r="Z26" s="524"/>
-      <c r="AA26" s="524"/>
-      <c r="AB26" s="524"/>
-      <c r="AC26" s="524"/>
-      <c r="AD26" s="524"/>
-      <c r="AE26" s="524"/>
-      <c r="AF26" s="524"/>
-      <c r="AG26" s="524"/>
-      <c r="AH26" s="524"/>
-      <c r="AI26" s="524"/>
-      <c r="AJ26" s="524"/>
-      <c r="AK26" s="524"/>
-      <c r="AL26" s="524"/>
-      <c r="AM26" s="524"/>
-      <c r="AN26" s="524"/>
-      <c r="AO26" s="524"/>
-      <c r="AP26" s="524"/>
-      <c r="AQ26" s="524"/>
-      <c r="AR26" s="524"/>
-      <c r="AS26" s="524"/>
-      <c r="AT26" s="524"/>
-      <c r="AU26" s="524"/>
-      <c r="AV26" s="524"/>
-      <c r="AW26" s="524"/>
-      <c r="AX26" s="524"/>
-      <c r="AY26" s="524"/>
-      <c r="AZ26" s="524"/>
-      <c r="BA26" s="524"/>
-      <c r="BB26" s="524"/>
-      <c r="BC26" s="524"/>
-      <c r="BD26" s="524"/>
-      <c r="BE26" s="524"/>
-      <c r="BF26" s="524"/>
-      <c r="BG26" s="524"/>
-      <c r="BH26" s="524"/>
-      <c r="BI26" s="524"/>
-      <c r="BJ26" s="524"/>
-      <c r="BK26" s="524"/>
-      <c r="BL26" s="574"/>
+      <c r="A26" s="691"/>
+      <c r="B26" s="523"/>
+      <c r="C26" s="523"/>
+      <c r="D26" s="523"/>
+      <c r="E26" s="523"/>
+      <c r="F26" s="523"/>
+      <c r="G26" s="523"/>
+      <c r="H26" s="523"/>
+      <c r="I26" s="523"/>
+      <c r="J26" s="523"/>
+      <c r="K26" s="523"/>
+      <c r="L26" s="523"/>
+      <c r="M26" s="523"/>
+      <c r="N26" s="523"/>
+      <c r="O26" s="523"/>
+      <c r="P26" s="523"/>
+      <c r="Q26" s="523"/>
+      <c r="R26" s="523"/>
+      <c r="S26" s="523"/>
+      <c r="T26" s="523"/>
+      <c r="U26" s="523"/>
+      <c r="V26" s="523"/>
+      <c r="W26" s="523"/>
+      <c r="X26" s="523"/>
+      <c r="Y26" s="523"/>
+      <c r="Z26" s="523"/>
+      <c r="AA26" s="523"/>
+      <c r="AB26" s="523"/>
+      <c r="AC26" s="523"/>
+      <c r="AD26" s="523"/>
+      <c r="AE26" s="523"/>
+      <c r="AF26" s="523"/>
+      <c r="AG26" s="523"/>
+      <c r="AH26" s="523"/>
+      <c r="AI26" s="523"/>
+      <c r="AJ26" s="523"/>
+      <c r="AK26" s="523"/>
+      <c r="AL26" s="523"/>
+      <c r="AM26" s="523"/>
+      <c r="AN26" s="523"/>
+      <c r="AO26" s="523"/>
+      <c r="AP26" s="523"/>
+      <c r="AQ26" s="523"/>
+      <c r="AR26" s="523"/>
+      <c r="AS26" s="523"/>
+      <c r="AT26" s="523"/>
+      <c r="AU26" s="523"/>
+      <c r="AV26" s="523"/>
+      <c r="AW26" s="523"/>
+      <c r="AX26" s="523"/>
+      <c r="AY26" s="523"/>
+      <c r="AZ26" s="523"/>
+      <c r="BA26" s="523"/>
+      <c r="BB26" s="523"/>
+      <c r="BC26" s="523"/>
+      <c r="BD26" s="523"/>
+      <c r="BE26" s="523"/>
+      <c r="BF26" s="523"/>
+      <c r="BG26" s="523"/>
+      <c r="BH26" s="523"/>
+      <c r="BI26" s="523"/>
+      <c r="BJ26" s="523"/>
+      <c r="BK26" s="523"/>
+      <c r="BL26" s="653"/>
+    </row>
+    <row r="27" customHeight="1" ht="12">
+      <c r="A27" s="695"/>
+      <c r="B27" s="524"/>
+      <c r="C27" s="524"/>
+      <c r="D27" s="524"/>
+      <c r="E27" s="524"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="524"/>
+      <c r="H27" s="524"/>
+      <c r="I27" s="524"/>
+      <c r="J27" s="524"/>
+      <c r="K27" s="524"/>
+      <c r="L27" s="524"/>
+      <c r="M27" s="524"/>
+      <c r="N27" s="524"/>
+      <c r="O27" s="524"/>
+      <c r="P27" s="524"/>
+      <c r="Q27" s="524"/>
+      <c r="R27" s="524"/>
+      <c r="S27" s="524"/>
+      <c r="T27" s="524"/>
+      <c r="U27" s="524"/>
+      <c r="V27" s="524"/>
+      <c r="W27" s="524"/>
+      <c r="X27" s="524"/>
+      <c r="Y27" s="524"/>
+      <c r="Z27" s="524"/>
+      <c r="AA27" s="524"/>
+      <c r="AB27" s="524"/>
+      <c r="AC27" s="524"/>
+      <c r="AD27" s="524"/>
+      <c r="AE27" s="524"/>
+      <c r="AF27" s="524"/>
+      <c r="AG27" s="524"/>
+      <c r="AH27" s="524"/>
+      <c r="AI27" s="524"/>
+      <c r="AJ27" s="524"/>
+      <c r="AK27" s="524"/>
+      <c r="AL27" s="524"/>
+      <c r="AM27" s="524"/>
+      <c r="AN27" s="524"/>
+      <c r="AO27" s="524"/>
+      <c r="AP27" s="524"/>
+      <c r="AQ27" s="524"/>
+      <c r="AR27" s="524"/>
+      <c r="AS27" s="524"/>
+      <c r="AT27" s="524"/>
+      <c r="AU27" s="524"/>
+      <c r="AV27" s="524"/>
+      <c r="AW27" s="524"/>
+      <c r="AX27" s="524"/>
+      <c r="AY27" s="524"/>
+      <c r="AZ27" s="524"/>
+      <c r="BA27" s="524"/>
+      <c r="BB27" s="524"/>
+      <c r="BC27" s="524"/>
+      <c r="BD27" s="524"/>
+      <c r="BE27" s="524"/>
+      <c r="BF27" s="524"/>
+      <c r="BG27" s="524"/>
+      <c r="BH27" s="524"/>
+      <c r="BI27" s="524"/>
+      <c r="BJ27" s="524"/>
+      <c r="BK27" s="524"/>
+      <c r="BL27" s="574"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -16377,8 +16606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC90AC64-5413-4DF7-A28B-B15B979374D2}">
   <dimension ref="A1:BN36"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="140" zoomScaleNormal="140" workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AH20" sqref="AH20:AN20" activeCellId="0"/>
+    <sheetView showGridLines="false" zoomScale="120" zoomScaleNormal="120" workbookViewId="0" topLeftCell="A4">
+      <selection activeCell="AH24" sqref="AH24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="11.25" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -51004,7 +51233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F483F54A-5AD5-4BFC-9283-BB80624954B3}">
   <dimension ref="A1:BN14"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A4" tabSelected="1">
+    <sheetView showGridLines="false" zoomScale="110" zoomScaleNormal="110" workbookViewId="0" topLeftCell="A1" tabSelected="1">
       <selection activeCell="BA19" sqref="BA19" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -51792,8 +52021,8 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="AH28" activeCellId="0" sqref="AH28"/>
+    <sheetView workbookViewId="0" topLeftCell="A10">
+      <selection activeCell="BZ35" activeCellId="0" sqref="BZ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="0" outlineLevelCol="0" customHeight="true" defaultColWidth="2.125"/>
@@ -52479,8 +52708,8 @@
       <c r="AS7" s="595"/>
       <c r="AT7" s="595"/>
       <c r="AU7" s="595"/>
-      <c r="AV7" s="595"/>
-      <c r="AW7" s="843"/>
+      <c r="AV7" s="601"/>
+      <c r="AW7" s="853"/>
       <c r="AX7" s="844"/>
       <c r="AY7" s="844"/>
       <c r="AZ7" s="844"/>
